--- a/projects/patchseq_metadata/DT_HM_TissueClearingTracking_.xlsx
+++ b/projects/patchseq_metadata/DT_HM_TissueClearingTracking_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alleninstitute.sharepoint.com/sites/U19Thalamus/Shared Documents/Project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C658866D-8FF8-4A15-B93F-5F15C36201F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D82684-9690-42E3-BCDB-63543431F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43410" yWindow="2320" windowWidth="28800" windowHeight="15370" firstSheet="9" activeTab="9" xr2:uid="{B817978D-3067-4F92-92E2-03C675FB59C4}"/>
+    <workbookView xWindow="43410" yWindow="2320" windowWidth="28800" windowHeight="15370" firstSheet="9" activeTab="11" xr2:uid="{B817978D-3067-4F92-92E2-03C675FB59C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2022 - Feb 2023" sheetId="7" r:id="rId1"/>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">No U19 brains: 704242 is Anna Lakunina's; 724180 (spinal cord) is Judith Baka's; 725328, 726132, 726133 are Polina Kosillo's; 699463, 709319, 709322, 677150, 695941, 716324, 718451 are Kanghoon Jung's </t>
   </si>
   <si>
-    <t>721316, 698260, 709352, 704283, 725529, 703250, 705779, 703551, 705778, 722843, 718454, 687543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">698260, 709352, 704283 are Anna Lakunina's; 725529 is Polina Kosillo's; 703250, 705779, 703551, 705778, 722843, 718454, 687543 are Kanghoon Jung's  </t>
+    <t>721316, 698260, 709352, 704283, 725329, 703250, 705779, 703551, 705778, 722843, 718454, 687543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">698260, 709352, 704283 are Anna Lakunina's; 725329 is Polina Kosillo's; 703250, 705779, 703551, 705778, 722843, 718454, 687543 are Kanghoon Jung's  </t>
   </si>
   <si>
     <t>710110, 719360, 724927, 725326</t>
@@ -8481,7 +8481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB4853B-27A2-4E9F-BB82-F5DF79FAE41D}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -9483,9 +9483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1B779-0634-4F04-A0D7-CD3D69AAEDB4}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10561,7 +10561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="72.599999999999994">
+    <row r="77" spans="1:4" ht="76.5">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="72.599999999999994">
+    <row r="80" spans="1:4" ht="76.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -17645,7 +17645,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B56" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -25303,8 +25303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A208028-4DB6-45B2-9FEA-F8072189C83A}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -28070,7 +28071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497F0441-48A5-4434-AA45-80F3DAF71F4E}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -30081,7 +30082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688584EE-3C7B-477C-A935-F812C1E46B0B}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -32251,7 +32252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD07617E-10EB-47A5-BFD2-7F25716D436B}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -34725,6 +34726,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c65472c-b9f9-4571-94ff-540c94a616f5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a192c208-c66a-4877-8c3a-71c84d8b7446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DA38A99A95E53E45BC77383D06E8D8B8" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98d2841fbb8db0096988a5f9c3b5b4a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a192c208-c66a-4877-8c3a-71c84d8b7446" xmlns:ns3="4c65472c-b9f9-4571-94ff-540c94a616f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f932ff0d344a76a8052b259bce753435" ns2:_="" ns3:_="">
     <xsd:import namespace="a192c208-c66a-4877-8c3a-71c84d8b7446"/>
@@ -34973,7 +34985,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34982,25 +34994,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4c65472c-b9f9-4571-94ff-540c94a616f5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a192c208-c66a-4877-8c3a-71c84d8b7446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC457C14-FD43-492D-99CE-65BB98327F62}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2535C58-DF1C-4CCB-A971-F52E0C04C274}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C88080F-69D8-4689-BEE5-A1C072168C04}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC457C14-FD43-492D-99CE-65BB98327F62}"/>
 </file>
--- a/projects/patchseq_metadata/DT_HM_TissueClearingTracking_.xlsx
+++ b/projects/patchseq_metadata/DT_HM_TissueClearingTracking_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alleninstitute.sharepoint.com/sites/U19Thalamus/Shared Documents/Project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D82684-9690-42E3-BCDB-63543431F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5DCEAB-E4AB-49E8-A9D1-80223D593A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43410" yWindow="2320" windowWidth="28800" windowHeight="15370" firstSheet="9" activeTab="11" xr2:uid="{B817978D-3067-4F92-92E2-03C675FB59C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="11" activeTab="11" xr2:uid="{B817978D-3067-4F92-92E2-03C675FB59C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2022 - Feb 2023" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7342" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7941" uniqueCount="1553">
   <si>
     <t>SubjInfo</t>
   </si>
@@ -2601,7 +2601,208 @@
     <t>5/2/25 - 5/4/25</t>
   </si>
   <si>
+    <t>4/25/25 - 4/28/25</t>
+  </si>
+  <si>
+    <t>4/28/25 - 4/29/25</t>
+  </si>
+  <si>
+    <t>1xpbs in 4c 4/29/25 - 5/1/25</t>
+  </si>
+  <si>
+    <t>A07TI03</t>
+  </si>
+  <si>
+    <t>5/5/25 - 5/6/25</t>
+  </si>
+  <si>
+    <t>5/6/25 - 5/8/25</t>
+  </si>
+  <si>
+    <t>5/2/25 - 5/5/25</t>
+  </si>
+  <si>
+    <t>5/6/25 - 5/7/25</t>
+  </si>
+  <si>
+    <t>5/7/25 - 5/9/25</t>
+  </si>
+  <si>
+    <t>5/9/25 - 5/10/25</t>
+  </si>
+  <si>
+    <t>EI74</t>
+  </si>
+  <si>
+    <t>5/10/25 - 5/12/25</t>
+  </si>
+  <si>
+    <t>5/9/25/ - 5/12/25</t>
+  </si>
+  <si>
+    <t>5/12/25 - 5/13/25</t>
+  </si>
+  <si>
+    <t>5/13/25 - 5/14/25</t>
+  </si>
+  <si>
+    <t>5/14/25 - 5/16/25</t>
+  </si>
+  <si>
+    <t>5/16/25 - 5/25/25</t>
+  </si>
+  <si>
+    <t>5/28/25 - 5/30/25</t>
+  </si>
+  <si>
+    <t>RT 5/16/25 - 5/27/25</t>
+  </si>
+  <si>
+    <t>5/12/25 - 5/15/25</t>
+  </si>
+  <si>
+    <t>5/15/25 - 5/16/25</t>
+  </si>
+  <si>
+    <t>5/16/25 - 5/27/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>5/27/25 - 5/25/25</t>
+  </si>
+  <si>
+    <t>5/30/25 - 5/31/25</t>
+  </si>
+  <si>
+    <t>5/31/25 - 6/2/25</t>
+  </si>
+  <si>
+    <t>6/6/25 - 6/9/25</t>
+  </si>
+  <si>
+    <t>ex 58</t>
+  </si>
+  <si>
+    <t>6/9/25 - 6/10/25</t>
+  </si>
+  <si>
+    <t>6/16/25 - 6/17/25</t>
+  </si>
+  <si>
+    <t>6/17/25 - 6/19/25</t>
+  </si>
+  <si>
+    <t>42 C, 45 V, 1500 mA, 45 hours</t>
+  </si>
+  <si>
+    <t>6/19/25 - 6/20/25</t>
+  </si>
+  <si>
+    <t>EI75</t>
+  </si>
+  <si>
+    <t>6/20/25 - 6/22/25</t>
+  </si>
+  <si>
     <t>Perfusion notes: liver tips blushy</t>
+  </si>
+  <si>
+    <t>6/16/25 - 6/19/25</t>
+  </si>
+  <si>
+    <t>bu30</t>
+  </si>
+  <si>
+    <t>ex59</t>
+  </si>
+  <si>
+    <t>6/23/25 - 6/24/25</t>
+  </si>
+  <si>
+    <t>6/24/25 - 6/26/25</t>
+  </si>
+  <si>
+    <t>6/26/25 - 6/27/25</t>
+  </si>
+  <si>
+    <t>6/27/25 - 6/29/25</t>
+  </si>
+  <si>
+    <t>6/20/25 - 6/23/25</t>
+  </si>
+  <si>
+    <t>6/25/25 - 6/26/25</t>
+  </si>
+  <si>
+    <t>6/26/25 - 6/30/25</t>
+  </si>
+  <si>
+    <t>6/30/25 - 7/1/25</t>
+  </si>
+  <si>
+    <t>7/1/25 - 7/3/25</t>
+  </si>
+  <si>
+    <t>6/27/25 - 6/30/25</t>
+  </si>
+  <si>
+    <t>7/1/25 - 7/2/25</t>
+  </si>
+  <si>
+    <t>7/2/25 - 7/4/25</t>
+  </si>
+  <si>
+    <t>7/4/25 - 7/8/25</t>
+  </si>
+  <si>
+    <t>7/8/25 - 7/10/25</t>
+  </si>
+  <si>
+    <t>RT 7/4/25 - 7/7/25</t>
+  </si>
+  <si>
+    <t>7/3/25 - 7/7/25</t>
+  </si>
+  <si>
+    <t>7/7/25 - 7/8/25</t>
+  </si>
+  <si>
+    <t>7/8/25 - 7/9/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>7/9/25 - 7/10/25</t>
+  </si>
+  <si>
+    <t>7/10/25 - 7/12/25</t>
+  </si>
+  <si>
+    <t>7/14/25 - 7/15/25</t>
+  </si>
+  <si>
+    <t>7/15/25 - 7/17/25</t>
+  </si>
+  <si>
+    <t>Perfusion notes: lung inflation and nose drip/ mouth drip. Dissection notes: base of cerebellum and dorsal left cortex slightly blushy. Brain stem short</t>
+  </si>
+  <si>
+    <t>7/18/25 - 7/21/25</t>
+  </si>
+  <si>
+    <t>7/21/25 - 7/22/25</t>
+  </si>
+  <si>
+    <t>7/22/25 - 7/23/25</t>
+  </si>
+  <si>
+    <t>7/23/25 - 7/25/25</t>
+  </si>
+  <si>
+    <t>7/25/25 - 7/26/25</t>
+  </si>
+  <si>
+    <t>EI76</t>
+  </si>
+  <si>
+    <t>7/26/25 - 7/29/25</t>
   </si>
   <si>
     <t>LabTrack IDs</t>
@@ -3422,6 +3623,138 @@
     <t xml:space="preserve">765861, 776259 are Galen Lynch's brains; 754313 is Anna Lakunina's brain; 765624 is Bowen Tan's brain; 791270, 791272, 791275 are Polina Kosillo's brains </t>
   </si>
   <si>
+    <t>791231, 791232, 791276, 790862, 752014, 754897, 758018, 761038, 728484, 763360, 75888, 782394</t>
+  </si>
+  <si>
+    <t>752014, 754897, 758018, 761038, 728484, 763360, 75888, 782394 are Ella Hilton Van-Osdall's brains; 791231, 791232, 791276 are Polina Kosillo's brains</t>
+  </si>
+  <si>
+    <t>732859, 734831, 792090, 782294, 784892, 793110, 792096, 729100, 792101, 792102</t>
+  </si>
+  <si>
+    <t>No U19 brains; 732859, 734831 are Ella Hilton Van-Osdall's brains; 792090, 782294, 784892, 793110, 792096, 729100, 792101, 792102 are Naveen Ouelette's brains</t>
+  </si>
+  <si>
+    <t>805159, 805160, 805161, 805162, 805163, 805154, 805155, 805156, 805157, 805158, 763590, 796621</t>
+  </si>
+  <si>
+    <t>763590 is Ella Hilton Van-Osdall's brain; 805159, 805160, 805161, 805162, 805163, 805154, 805155, 805156, 805157 are Holly Myers's brains</t>
+  </si>
+  <si>
+    <t>780618, 786849, 786850, 762614, 786850, 791104, 791105, 791106, 791107, 791108, 791109, 797808</t>
+  </si>
+  <si>
+    <t>762614 is Bowen Tan's brain; 780618, 786849, 786850, 786850, 791104, 791105, 791106, 791107, 791108, 791109 are Xinxin Yin's brains</t>
+  </si>
+  <si>
+    <t>798571, 798573, 798575, 798576, 7998577, 782396, 793594, 793600, 793602, 793603, 780284, 780285</t>
+  </si>
+  <si>
+    <t>No U19 brains; 780284, 780285 are Xinxin Yin's brains; 782396, 793594, 793600, 793602, 793603 are Polina Kosillo's brains; 798571, 798573, 798575, 798576, 7998577 are Naveen Ouelette's brains; 782396 is Ella Hilton Van-Osdall's brain</t>
+  </si>
+  <si>
+    <t>765364, 780619, 782226, 775510, 778098, 778099, 787358, 787359, 765373, 779312, 778103, 782196</t>
+  </si>
+  <si>
+    <t>780619, 779312 are Xinxin Yin's brains; 787358, 787359 are Judith Baka's brains;  765364, 782226, 775510, 778098, 778099, 765373, 778103, 782196 are Bowen Tan's brains</t>
+  </si>
+  <si>
+    <t>777091, 777092, zjv38, zjv40, zjv42, jzv44, zjv45, 794492, 794495, 764642, 767299, 767462</t>
+  </si>
+  <si>
+    <t>No U19 brains, 764642, 767299, 767462 are Bowen Tan's brains; 777091, 777092 are Anna Lakunina's brains;  zjv38, zjv40, zjv42, jzv44, zjv45, 794492, 794495 are Naveen Ouelett's brains</t>
+  </si>
+  <si>
+    <t>802584, 805135, 803714, 803715, 799074, 805136, 781166, 785956, 729687, 733684, 734829, 751765</t>
+  </si>
+  <si>
+    <t>781166, 785956, 729687, 733684, 734829, 751765 are Ella Hilton Van-Osdall's brains</t>
+  </si>
+  <si>
+    <t>807728, 807724, 807727, 807723, 807726, 807722, 807725, 707720, 751768, 753889, 762444, 770104</t>
+  </si>
+  <si>
+    <t>No U19 brains; 751768, 753889, 762444, 770104 are Ella Hilton Van-Osdall's brains; 807728, 807724, 807727, 807723, 807726, 807722, 807725, 707720 are Bowen Tan's brains</t>
+  </si>
+  <si>
+    <t>770106, 777564, 785954, 753411, 800192, 802583, 797033, 797036, 773682, 777098, 777271, 780175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770106, 777564, 785954, 753411 are Ella Hilton Van-Osdall's brains; 797033, 797036 are Judith Baka's brains; 773682, 777098, 777271, 780175 are Anna Lakunina's brains </t>
+  </si>
+  <si>
+    <t>761161, 761160, 761157, 761946, 777565, 781369, 799075, 800191, 806467, 806469, 757358, 757576</t>
+  </si>
+  <si>
+    <t>777565 is Ella Hilton Van-Osdall's brain; 781369 is Yoni Browning's brain; 761161, 761160, 761157, 761946, 757358, 757576 are Bryan MacLennon's brains</t>
+  </si>
+  <si>
+    <t>796303, 796310, 796306, 796307, 779311, 781470, 780176, 781477, 784845, 761155, 761156, 770537</t>
+  </si>
+  <si>
+    <t>No U19 brains; 761155, 761156, 770537 are Bryan MacLennon's brains; 784845, 780176 are Anna Lakunina's brains; 796303, 796310, 796306, 796307 are Adrien Stanley's brains; 779311, 781470, 781477 are Xinxin Yin's brains</t>
+  </si>
+  <si>
+    <t>796013, 796014, 790763, 781370, 761952, 765499, 796015, 775316, 761154, 761430, 761434, 796010</t>
+  </si>
+  <si>
+    <t>796015, 796010 are Mikayla Carlson's brains; 790763 is Ella Hilton Van-Osdall's brain; 781370 is Yoni Browning's brain; 761952, 765499, 775316, 761154, 761430, 761434 are Bryan MacLennon's brains</t>
+  </si>
+  <si>
+    <t>700708, 784806, 705599, 708027, 708031, 708032, 708033, 746346, 754429, 784846, 791054, 778637</t>
+  </si>
+  <si>
+    <t>No U19 brains; 784806 is Ella Hilton Van-Osdall's brain; 784846, 791054 is Anna Lakunina's brain; 700708, 705599, 708027, 708031, 708032, 708033, 746346, 754429, 778637 are Kenta Hagihara's brains</t>
+  </si>
+  <si>
+    <t>726441, 726649, 746345, 754280, 754430, 756403, 775743, 777096, 791691, 796849, 796850, 802578</t>
+  </si>
+  <si>
+    <t>726441, 726649, 746345, 754280, 754430, 756403, 775743 are Kenta Hagihara's brains; 777096 is Anna Lakunina's brain; 791691 is Ella Hilton Van-Osdall's brain; 802578 is Naveen Ouelette's brain</t>
+  </si>
+  <si>
+    <t>784803, 785913, 789051, 790025, 793105, 753107, 802581, 793739, 793735, 793736, 793737, 793738</t>
+  </si>
+  <si>
+    <t>No U19 brains; 784803 is Ella Hilton Van-Osdall's brain; 785913, 789051, 790025 are Anna Lakunina's brains; 793105, 753107, 802581; 793739, 793735, 793736, 793737, 793738 are Kenta Hagihara's brains</t>
+  </si>
+  <si>
+    <t>796809, 793740, 769642, 765365, 769359, 769362, 767463, 767538, 796810, 782409, 793606, 796807</t>
+  </si>
+  <si>
+    <t>No U19 brains; 782409 is Jason Lee's brain; 796810, 796809, 793606, 796807 are Polina Kosillo's brains; 793740 is Kenta Hagihara's brain; 769642, 765365, 769359, 769362, 767463, 767538 are Bowen Tan's brains</t>
+  </si>
+  <si>
+    <t>774659, 774826, 774391, 774600, 774603, 790768, 801620, 801623, 796011, 796846, 809073, 809093</t>
+  </si>
+  <si>
+    <t>774659, 774826, 774391, 774600, 774603 are Bowen Tan's brains; 790768 is Ella Hilton Van-Osdall's brain; 801620, 801623 are Polina Kosillo's brains</t>
+  </si>
+  <si>
+    <t>804715, 804716, 801624, 804711, 804714, 782229, 784635, 761797, 763407, 770103, 810235, 810236</t>
+  </si>
+  <si>
+    <t>804715, 804716, 801624, 804711, 804714 are Polina Kosillo's brains; 782229, 784635 are Bowen Tan's brains; 761797, 763407, 770103 are Ella Hilton Van-Osdall's brains</t>
+  </si>
+  <si>
+    <t>754898, 743896, 788586, 791715, 804191, 788588, 786237, 807322, 807324, 807325, 807326, 807327</t>
+  </si>
+  <si>
+    <t>754898, 743896 are Sue Su's brains; 788586, 791715, 804191, 788588 are Bowen Tan's brains; 786237 are Ella Hilton Van-Osdall's brains; 807322, 807324, 807325, 807326, 807327 are Naveen Ouelette's brains</t>
+  </si>
+  <si>
+    <t>781575, 754986, 770777, 774390, 800447, 749472, 749622, 749624, 800443, 800444, 811464, 774664</t>
+  </si>
+  <si>
+    <t>749472, 749622, 749624, 754986 are Sue Su's brains; 774664, 781575, 770777, 774390 are Bowen Tan's brains; 800447, 800443, 800444 are Kenta Hagihara's brains</t>
+  </si>
+  <si>
+    <t>775435, 775436, 777019, 788654, 766559, 775439, 800693, 800696, 800697, 745895, 668386, 668384</t>
+  </si>
+  <si>
+    <t>No U19 brains; 668386, 668384 are Naveen Ouelette's brains; 775435, 775436, 777019, 788654, 766559, 775439 are Bowen Tan's brains; 800693, 800696, 800697 are Kenta Hagihara's brains; 745895 is Sue Su's brain</t>
+  </si>
+  <si>
     <t>Targets 
 (RV / Cre)</t>
   </si>
@@ -4227,7 +4560,7 @@
     <t>3/27/25 - 3/28/25</t>
   </si>
   <si>
-    <t>3/28/25 - 3/31/25</t>
+    <t>3/28/25 - 3/31/25 in 1xpbs 4c</t>
   </si>
   <si>
     <t xml:space="preserve">4/3/25 - 4/4/25 </t>
@@ -4266,22 +4599,142 @@
     <t>4/20/25 - 4/22/25</t>
   </si>
   <si>
-    <t>4/25/25 - 4/28/25</t>
-  </si>
-  <si>
-    <t>4/28/25 - 4/29/25</t>
-  </si>
-  <si>
-    <t>1xpbs in 4c 4/29/25 - 5/1/25</t>
-  </si>
-  <si>
-    <t>A07TI03</t>
-  </si>
-  <si>
-    <t>5/5/25 - 5/6/25</t>
-  </si>
-  <si>
-    <t>5/6/25 - 5/8/25</t>
+    <t>5/5/25 - 5/8/25</t>
+  </si>
+  <si>
+    <t>5/8/25 - 5/9/25</t>
+  </si>
+  <si>
+    <t>A07T103</t>
+  </si>
+  <si>
+    <t>5/13/25 - 5/15/25</t>
+  </si>
+  <si>
+    <t>5/27/25 - 5/30/25</t>
+  </si>
+  <si>
+    <t>5/30/25 - 6/1/25</t>
+  </si>
+  <si>
+    <t>6/1/25 - 6/2/25 in 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>6/2/25 - 6/3/25</t>
+  </si>
+  <si>
+    <t>6/3/25 - 6/5/25</t>
+  </si>
+  <si>
+    <t>6/5/25 - 6/6/25</t>
+  </si>
+  <si>
+    <t>6/6/25 - 6/8/25</t>
+  </si>
+  <si>
+    <t>5/30/25 - 6/2/25</t>
+  </si>
+  <si>
+    <t>6/3/25 - 6/4/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>6/4/25 - 6/5/25</t>
+  </si>
+  <si>
+    <t>6/5/25 - 6/7/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/9/25 - 6/10/25 </t>
+  </si>
+  <si>
+    <t>6/10/25 - 6/12/25</t>
+  </si>
+  <si>
+    <t>6/2/25 - 6/5/25</t>
+  </si>
+  <si>
+    <t>6/6/25 - 6/7/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>6/9/25 - 6/12/25</t>
+  </si>
+  <si>
+    <t>6/12/25 - 6/13/25</t>
+  </si>
+  <si>
+    <t>6/13/25 - 6/19/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>6/19/25 - 6/23/25</t>
+  </si>
+  <si>
+    <t>RT 6/20/25 - 6/23/25</t>
+  </si>
+  <si>
+    <t>6/23/25 - 6/25/25</t>
+  </si>
+  <si>
+    <t>6/25/25 - 6/25/25</t>
+  </si>
+  <si>
+    <t>6/26/25 - 6/28/25</t>
+  </si>
+  <si>
+    <t>6/23/25 - 6/26/25</t>
+  </si>
+  <si>
+    <t>6/27/25 - 6/30/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>7/3/25 - 7/4/25</t>
+  </si>
+  <si>
+    <t>7/4/25 - 7/6/25</t>
+  </si>
+  <si>
+    <t>6/30/25 - 7/3/25</t>
+  </si>
+  <si>
+    <t>7/4/25 - 7/7/25 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>7/11/25 - 7/14/25</t>
+  </si>
+  <si>
+    <t>bu31</t>
+  </si>
+  <si>
+    <t>ex61</t>
+  </si>
+  <si>
+    <t>on40</t>
+  </si>
+  <si>
+    <t>7/15/25 - 7/16/25</t>
+  </si>
+  <si>
+    <t>7/16/25 - 7/18/25</t>
+  </si>
+  <si>
+    <t>7/18/25 - 7/22/25</t>
+  </si>
+  <si>
+    <t>7/22/25 - 7/24/25</t>
+  </si>
+  <si>
+    <t>7/14/25 - 7/17/25</t>
+  </si>
+  <si>
+    <t>7/17/25 - 7/18/25</t>
+  </si>
+  <si>
+    <t>7/18/25 - 7/21/25 in 1xpbs in 4c</t>
+  </si>
+  <si>
+    <t>7/24/25 - 7/25/25</t>
+  </si>
+  <si>
+    <t>7/25/25 - 7/27/25</t>
   </si>
 </sst>
 </file>
@@ -5241,7 +5694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5796,6 +6249,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6203,33 +6662,33 @@
       <c r="B1" s="38"/>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="202" t="s">
+      <c r="E1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="202" t="s">
+      <c r="F1" s="205"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="204"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="202" t="s">
+      <c r="L1" s="206"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="202" t="s">
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="205"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="207"/>
       <c r="X1" s="41"/>
       <c r="Y1" s="40"/>
     </row>
@@ -8479,10 +8938,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB4853B-27A2-4E9F-BB82-F5DF79FAE41D}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -8513,33 +8972,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="206" t="s">
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="207"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="206" t="s">
+      <c r="L1" s="209"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="206" t="s">
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="208"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="210"/>
       <c r="X1" s="166"/>
       <c r="Y1" s="166"/>
     </row>
@@ -9006,9 +9465,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="29.1">
+    <row r="9" spans="1:25" ht="57.95">
       <c r="A9" s="125">
-        <v>790862</v>
+        <v>789131</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>139</v>
@@ -9019,13 +9478,61 @@
       <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="E9" s="125" t="s">
+        <v>850</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J9" s="126" t="s">
+        <v>852</v>
+      </c>
+      <c r="K9" s="125" t="s">
+        <v>848</v>
+      </c>
+      <c r="L9" t="s">
+        <v>853</v>
+      </c>
+      <c r="N9" s="125" t="s">
+        <v>849</v>
+      </c>
+      <c r="O9" t="s">
+        <v>840</v>
+      </c>
+      <c r="P9" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q9" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S9" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>806</v>
+      </c>
       <c r="X9" s="169">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="29.1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="57.95">
       <c r="A10" s="125">
-        <v>796621</v>
+        <v>790862</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>139</v>
@@ -9036,13 +9543,58 @@
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="E10" s="125" t="s">
+        <v>856</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="K10" s="125" t="s">
+        <v>857</v>
+      </c>
+      <c r="L10" t="s">
+        <v>853</v>
+      </c>
+      <c r="N10" s="125" t="s">
+        <v>858</v>
+      </c>
+      <c r="O10" t="s">
+        <v>840</v>
+      </c>
+      <c r="P10" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q10" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S10" s="125" t="s">
+        <v>859</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="X10" s="169">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="29.1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="57.95">
       <c r="A11" s="125">
-        <v>797808</v>
+        <v>796621</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>139</v>
@@ -9053,7 +9605,120 @@
       <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="E11" s="125" t="s">
+        <v>862</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>864</v>
+      </c>
+      <c r="L11" t="s">
+        <v>853</v>
+      </c>
+      <c r="N11" s="125" t="s">
+        <v>865</v>
+      </c>
+      <c r="O11" t="s">
+        <v>840</v>
+      </c>
+      <c r="P11" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q11" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S11" s="125" t="s">
+        <v>866</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="W11" s="126" t="s">
+        <v>868</v>
+      </c>
       <c r="X11" s="169">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="57.95">
+      <c r="A12" s="125">
+        <v>797808</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>869</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J12" s="126" t="s">
+        <v>871</v>
+      </c>
+      <c r="K12" s="125" t="s">
+        <v>872</v>
+      </c>
+      <c r="L12" t="s">
+        <v>853</v>
+      </c>
+      <c r="N12" s="125" t="s">
+        <v>867</v>
+      </c>
+      <c r="O12" t="s">
+        <v>840</v>
+      </c>
+      <c r="P12" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q12" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S12" s="125" t="s">
+        <v>873</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="X12" s="169">
         <v>139</v>
       </c>
     </row>
@@ -9070,10 +9735,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3516656-498D-48EC-A610-05E859DB6A6D}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9099,33 +9764,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="206" t="s">
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="207"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="206" t="s">
+      <c r="L1" s="209"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="206" t="s">
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="208"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="210"/>
       <c r="X1" s="166"/>
       <c r="Y1" s="166"/>
     </row>
@@ -9170,7 +9835,7 @@
       <c r="P2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="194" t="s">
+      <c r="Q2" s="98" t="s">
         <v>13</v>
       </c>
       <c r="R2" s="99" t="s">
@@ -9243,7 +9908,7 @@
       <c r="P3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="55"/>
       <c r="R3" s="56"/>
       <c r="S3" s="54" t="s">
         <v>22</v>
@@ -9261,8 +9926,8 @@
       <c r="X3" s="168"/>
       <c r="Y3" s="170"/>
     </row>
-    <row r="4" spans="1:25" ht="29.1">
-      <c r="A4" s="34">
+    <row r="4" spans="1:25" ht="57.95">
+      <c r="A4" s="110">
         <v>802584</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -9274,12 +9939,62 @@
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="187">
+      <c r="E4" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J4" s="93"/>
+      <c r="K4" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M4" s="93"/>
+      <c r="N4" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q4" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R4" s="93"/>
+      <c r="S4" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W4" s="93"/>
+      <c r="X4" s="202">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="29.1">
-      <c r="A5" s="34">
+      <c r="Y4" s="202"/>
+    </row>
+    <row r="5" spans="1:25" ht="57.95">
+      <c r="A5" s="110">
         <v>805135</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -9291,12 +10006,62 @@
       <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="187">
+      <c r="E5" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J5" s="93"/>
+      <c r="K5" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M5" s="93"/>
+      <c r="N5" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q5" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R5" s="93"/>
+      <c r="S5" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W5" s="93"/>
+      <c r="X5" s="202">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="29.1">
-      <c r="A6" s="34">
+      <c r="Y5" s="202"/>
+    </row>
+    <row r="6" spans="1:25" ht="57.95">
+      <c r="A6" s="110">
         <v>803714</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -9308,12 +10073,62 @@
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="187">
+      <c r="E6" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J6" s="93"/>
+      <c r="K6" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M6" s="93"/>
+      <c r="N6" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q6" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R6" s="93"/>
+      <c r="S6" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W6" s="93"/>
+      <c r="X6" s="202">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="29.1">
-      <c r="A7" s="34">
+      <c r="Y6" s="202"/>
+    </row>
+    <row r="7" spans="1:25" ht="57.95">
+      <c r="A7" s="110">
         <v>803715</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -9325,12 +10140,62 @@
       <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X7" s="187">
+      <c r="E7" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J7" s="93"/>
+      <c r="K7" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M7" s="93"/>
+      <c r="N7" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q7" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R7" s="93"/>
+      <c r="S7" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W7" s="93"/>
+      <c r="X7" s="202">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="29.1">
-      <c r="A8" s="34">
+      <c r="Y7" s="202"/>
+    </row>
+    <row r="8" spans="1:25" ht="57.95">
+      <c r="A8" s="110">
         <v>799074</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -9342,15 +10207,64 @@
       <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="187">
+      <c r="E8" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q8" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R8" s="93"/>
+      <c r="S8" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W8" s="93"/>
+      <c r="X8" s="202">
         <v>143</v>
       </c>
-      <c r="Y8" s="187" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="29.1">
-      <c r="A9" s="34">
+      <c r="Y8" s="202" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="57.95">
+      <c r="A9" s="110">
         <v>805136</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -9362,12 +10276,62 @@
       <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="187">
+      <c r="E9" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M9" s="93"/>
+      <c r="N9" s="110" t="s">
+        <v>879</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q9" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R9" s="93"/>
+      <c r="S9" s="110" t="s">
+        <v>881</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W9" s="93"/>
+      <c r="X9" s="202">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="29.1">
-      <c r="A10" s="34">
+      <c r="Y9" s="202"/>
+    </row>
+    <row r="10" spans="1:25" ht="57.95">
+      <c r="A10" s="110">
         <v>800192</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -9379,12 +10343,62 @@
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="187">
+      <c r="E10" s="110" t="s">
+        <v>885</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J10" s="93"/>
+      <c r="K10" s="110" t="s">
+        <v>888</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M10" s="93"/>
+      <c r="N10" s="110" t="s">
+        <v>889</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q10" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R10" s="93"/>
+      <c r="S10" s="110" t="s">
+        <v>890</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W10" s="93"/>
+      <c r="X10" s="202">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="29.1">
-      <c r="A11" s="34">
+      <c r="Y10" s="202"/>
+    </row>
+    <row r="11" spans="1:25" ht="57.95">
+      <c r="A11" s="110">
         <v>802583</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -9396,12 +10410,62 @@
       <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="187">
+      <c r="E11" s="110" t="s">
+        <v>885</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J11" s="93"/>
+      <c r="K11" s="110" t="s">
+        <v>888</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M11" s="93"/>
+      <c r="N11" s="110" t="s">
+        <v>889</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q11" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R11" s="93"/>
+      <c r="S11" s="110" t="s">
+        <v>890</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W11" s="93"/>
+      <c r="X11" s="202">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="29.1">
-      <c r="A12" s="34">
+      <c r="Y11" s="202"/>
+    </row>
+    <row r="12" spans="1:25" ht="57.95">
+      <c r="A12" s="110">
         <v>799075</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -9413,12 +10477,62 @@
       <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="187">
+      <c r="E12" s="110" t="s">
+        <v>892</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J12" s="93"/>
+      <c r="K12" s="110" t="s">
+        <v>893</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M12" s="93"/>
+      <c r="N12" s="110" t="s">
+        <v>894</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q12" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R12" s="93"/>
+      <c r="S12" s="110" t="s">
+        <v>895</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W12" s="93"/>
+      <c r="X12" s="202">
         <v>146</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="29.1">
-      <c r="A13" s="34">
+      <c r="Y12" s="202"/>
+    </row>
+    <row r="13" spans="1:25" ht="57.95">
+      <c r="A13" s="110">
         <v>800191</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -9430,12 +10544,62 @@
       <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="187">
+      <c r="E13" s="110" t="s">
+        <v>892</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J13" s="93"/>
+      <c r="K13" s="110" t="s">
+        <v>893</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M13" s="93"/>
+      <c r="N13" s="110" t="s">
+        <v>894</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q13" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R13" s="93"/>
+      <c r="S13" s="110" t="s">
+        <v>895</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W13" s="93"/>
+      <c r="X13" s="202">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="29.1">
-      <c r="A14" s="34">
+      <c r="Y13" s="202"/>
+    </row>
+    <row r="14" spans="1:25" ht="57.95">
+      <c r="A14" s="110">
         <v>806467</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -9447,12 +10611,62 @@
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="187">
+      <c r="E14" s="110" t="s">
+        <v>892</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J14" s="93"/>
+      <c r="K14" s="110" t="s">
+        <v>893</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M14" s="93"/>
+      <c r="N14" s="110" t="s">
+        <v>894</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q14" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R14" s="93"/>
+      <c r="S14" s="110" t="s">
+        <v>895</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W14" s="93"/>
+      <c r="X14" s="202">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="29.1">
-      <c r="A15" s="34">
+      <c r="Y14" s="202"/>
+    </row>
+    <row r="15" spans="1:25" ht="57.95">
+      <c r="A15" s="110">
         <v>806469</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -9464,9 +10678,856 @@
       <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="187">
+      <c r="E15" s="110" t="s">
+        <v>892</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J15" s="93"/>
+      <c r="K15" s="110" t="s">
+        <v>893</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M15" s="93"/>
+      <c r="N15" s="110" t="s">
+        <v>894</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q15" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R15" s="93"/>
+      <c r="S15" s="110" t="s">
+        <v>895</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W15" s="93"/>
+      <c r="X15" s="202">
         <v>146</v>
       </c>
+      <c r="Y15" s="202"/>
+    </row>
+    <row r="16" spans="1:25" ht="57.95">
+      <c r="A16" s="110">
+        <v>796013</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>897</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J16" s="93"/>
+      <c r="K16" s="110" t="s">
+        <v>898</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M16" s="93"/>
+      <c r="N16" s="110" t="s">
+        <v>899</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q16" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R16" s="93"/>
+      <c r="S16" s="110" t="s">
+        <v>900</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W16" s="93" t="s">
+        <v>902</v>
+      </c>
+      <c r="X16" s="202">
+        <v>148</v>
+      </c>
+      <c r="Y16" s="202"/>
+    </row>
+    <row r="17" spans="1:25" ht="57.95">
+      <c r="A17" s="110">
+        <v>796014</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>897</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="110" t="s">
+        <v>898</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M17" s="93"/>
+      <c r="N17" s="110" t="s">
+        <v>899</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q17" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R17" s="93"/>
+      <c r="S17" s="110" t="s">
+        <v>900</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W17" s="93" t="s">
+        <v>902</v>
+      </c>
+      <c r="X17" s="202">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="202"/>
+    </row>
+    <row r="18" spans="1:25" ht="57.95">
+      <c r="A18" s="110">
+        <v>796849</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>903</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>905</v>
+      </c>
+      <c r="K18" s="110" t="s">
+        <v>906</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M18" s="93"/>
+      <c r="N18" s="110" t="s">
+        <v>907</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q18" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R18" s="93"/>
+      <c r="S18" s="110" t="s">
+        <v>908</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W18" s="93"/>
+      <c r="X18" s="202">
+        <v>150</v>
+      </c>
+      <c r="Y18" s="202"/>
+    </row>
+    <row r="19" spans="1:25" ht="72.599999999999994">
+      <c r="A19" s="110">
+        <v>796850</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>903</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>905</v>
+      </c>
+      <c r="K19" s="110" t="s">
+        <v>906</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M19" s="93"/>
+      <c r="N19" s="110" t="s">
+        <v>907</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q19" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R19" s="93"/>
+      <c r="S19" s="110" t="s">
+        <v>908</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="W19" s="93"/>
+      <c r="X19" s="202">
+        <v>150</v>
+      </c>
+      <c r="Y19" s="202" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="57.95">
+      <c r="A20" s="110">
+        <v>796011</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>911</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J20" s="93"/>
+      <c r="K20" s="110" t="s">
+        <v>913</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M20" s="93"/>
+      <c r="N20" s="110" t="s">
+        <v>914</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q20" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R20" s="93"/>
+      <c r="S20" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="W20" s="93"/>
+      <c r="X20" s="202">
+        <v>153</v>
+      </c>
+      <c r="Y20" s="202"/>
+    </row>
+    <row r="21" spans="1:25" ht="57.95">
+      <c r="A21" s="110">
+        <v>796846</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>911</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J21" s="93"/>
+      <c r="K21" s="110" t="s">
+        <v>913</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M21" s="93"/>
+      <c r="N21" s="110" t="s">
+        <v>914</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q21" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R21" s="93"/>
+      <c r="S21" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="W21" s="93"/>
+      <c r="X21" s="202">
+        <v>153</v>
+      </c>
+      <c r="Y21" s="202"/>
+    </row>
+    <row r="22" spans="1:25" ht="57.95">
+      <c r="A22" s="110">
+        <v>809073</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>911</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J22" s="93"/>
+      <c r="K22" s="110" t="s">
+        <v>913</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M22" s="93"/>
+      <c r="N22" s="110" t="s">
+        <v>914</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q22" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R22" s="93"/>
+      <c r="S22" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="W22" s="93"/>
+      <c r="X22" s="202">
+        <v>153</v>
+      </c>
+      <c r="Y22" s="202"/>
+    </row>
+    <row r="23" spans="1:25" ht="57.95">
+      <c r="A23" s="110">
+        <v>809093</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>911</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J23" s="93"/>
+      <c r="K23" s="110" t="s">
+        <v>913</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="M23" s="93"/>
+      <c r="N23" s="110" t="s">
+        <v>914</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q23" s="203" t="s">
+        <v>880</v>
+      </c>
+      <c r="R23" s="93"/>
+      <c r="S23" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="W23" s="93"/>
+      <c r="X23" s="202">
+        <v>153</v>
+      </c>
+      <c r="Y23" s="202"/>
+    </row>
+    <row r="24" spans="1:25" ht="29.1">
+      <c r="A24" s="110">
+        <v>810235</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="110"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="202">
+        <v>154</v>
+      </c>
+      <c r="Y24" s="202"/>
+    </row>
+    <row r="25" spans="1:25" ht="29.1">
+      <c r="A25" s="110">
+        <v>810236</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="202">
+        <v>154</v>
+      </c>
+      <c r="Y25" s="202"/>
+    </row>
+    <row r="26" spans="1:25" ht="29.1">
+      <c r="A26" s="110">
+        <v>811464</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="110"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="202">
+        <v>156</v>
+      </c>
+      <c r="Y26" s="202"/>
+    </row>
+    <row r="27" spans="1:25" ht="29.1">
+      <c r="A27" s="110">
+        <v>811475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="202"/>
+      <c r="Y27" s="202"/>
+    </row>
+    <row r="28" spans="1:25" ht="29.1">
+      <c r="A28" s="110">
+        <v>812812</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="202"/>
+      <c r="Y28" s="202"/>
+    </row>
+    <row r="29" spans="1:25" ht="29.1">
+      <c r="A29" s="110">
+        <v>813750</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="110"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="202"/>
+      <c r="Y29" s="202"/>
+    </row>
+    <row r="30" spans="1:25" ht="29.1">
+      <c r="A30" s="110">
+        <v>813751</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="110"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="202"/>
+      <c r="Y30" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9481,11 +11542,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1B779-0634-4F04-A0D7-CD3D69AAEDB4}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76:K84"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9502,13 +11563,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>851</v>
+        <v>918</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>852</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9516,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -9528,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>854</v>
+        <v>921</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -9540,10 +11601,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>855</v>
+        <v>922</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>856</v>
+        <v>923</v>
       </c>
       <c r="D4" s="3">
         <v>12</v>
@@ -9554,10 +11615,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>857</v>
+        <v>924</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>858</v>
+        <v>925</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
@@ -9568,7 +11629,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>859</v>
+        <v>926</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -9581,10 +11642,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>860</v>
+        <v>927</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>861</v>
+        <v>928</v>
       </c>
       <c r="D7" s="3">
         <v>12</v>
@@ -9596,10 +11657,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>863</v>
+        <v>930</v>
       </c>
       <c r="D8" s="3">
         <v>12</v>
@@ -9611,10 +11672,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="D9" s="3">
         <v>12</v>
@@ -9627,10 +11688,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>866</v>
+        <v>933</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>867</v>
+        <v>934</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
@@ -9643,10 +11704,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>869</v>
+        <v>936</v>
       </c>
       <c r="D11" s="3">
         <v>11</v>
@@ -9659,10 +11720,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>870</v>
+        <v>937</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>871</v>
+        <v>938</v>
       </c>
       <c r="D12" s="21">
         <v>12</v>
@@ -9674,16 +11735,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>872</v>
+        <v>939</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>873</v>
+        <v>940</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>874</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9691,7 +11752,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>875</v>
+        <v>942</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -9704,7 +11765,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>876</v>
+        <v>943</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -9716,10 +11777,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>877</v>
+        <v>944</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>878</v>
+        <v>945</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
@@ -9730,10 +11791,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>879</v>
+        <v>946</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>880</v>
+        <v>947</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
@@ -9745,7 +11806,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>881</v>
+        <v>948</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -9757,10 +11818,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>882</v>
+        <v>949</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>883</v>
+        <v>950</v>
       </c>
       <c r="D19" s="3">
         <v>8</v>
@@ -9772,10 +11833,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>885</v>
+        <v>952</v>
       </c>
       <c r="D20" s="15">
         <v>9</v>
@@ -9786,10 +11847,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>886</v>
+        <v>953</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>887</v>
+        <v>954</v>
       </c>
       <c r="D21" s="15">
         <v>10</v>
@@ -9800,10 +11861,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>888</v>
+        <v>955</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>889</v>
+        <v>956</v>
       </c>
       <c r="D22" s="15">
         <v>12</v>
@@ -9814,10 +11875,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>890</v>
+        <v>957</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>891</v>
+        <v>958</v>
       </c>
       <c r="D23" s="24">
         <v>3</v>
@@ -9828,10 +11889,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>892</v>
+        <v>959</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>893</v>
+        <v>960</v>
       </c>
       <c r="D24" s="15">
         <v>12</v>
@@ -9842,10 +11903,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>894</v>
+        <v>961</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>895</v>
+        <v>962</v>
       </c>
       <c r="D25" s="15">
         <v>4</v>
@@ -9856,10 +11917,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>896</v>
+        <v>963</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>897</v>
+        <v>964</v>
       </c>
       <c r="D26" s="31">
         <v>7</v>
@@ -9870,10 +11931,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="148" t="s">
-        <v>898</v>
+        <v>965</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>899</v>
+        <v>966</v>
       </c>
       <c r="D27" s="25">
         <v>8</v>
@@ -9884,7 +11945,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="15">
@@ -9896,10 +11957,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>901</v>
+        <v>968</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>902</v>
+        <v>969</v>
       </c>
       <c r="D29" s="24">
         <v>3</v>
@@ -9910,10 +11971,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>903</v>
+        <v>970</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>904</v>
+        <v>971</v>
       </c>
       <c r="D30" s="3">
         <v>8</v>
@@ -9924,10 +11985,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>905</v>
+        <v>972</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>906</v>
+        <v>973</v>
       </c>
       <c r="D31" s="10">
         <v>12</v>
@@ -9938,10 +11999,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>907</v>
+        <v>974</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>908</v>
+        <v>975</v>
       </c>
       <c r="D32" s="24">
         <v>12</v>
@@ -9952,10 +12013,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>909</v>
+        <v>976</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>910</v>
+        <v>977</v>
       </c>
       <c r="D33" s="15">
         <v>8</v>
@@ -9966,10 +12027,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>911</v>
+        <v>978</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>912</v>
+        <v>979</v>
       </c>
       <c r="D34" s="24">
         <v>11</v>
@@ -9980,10 +12041,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>913</v>
+        <v>980</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>914</v>
+        <v>981</v>
       </c>
       <c r="D35" s="15">
         <v>12</v>
@@ -9994,7 +12055,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15">
@@ -10006,10 +12067,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>916</v>
+        <v>983</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>917</v>
+        <v>984</v>
       </c>
       <c r="D37" s="15">
         <v>10</v>
@@ -10020,10 +12081,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>918</v>
+        <v>985</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>919</v>
+        <v>986</v>
       </c>
       <c r="D38" s="15">
         <v>12</v>
@@ -10034,10 +12095,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>920</v>
+        <v>987</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>921</v>
+        <v>988</v>
       </c>
       <c r="D39" s="31">
         <v>7</v>
@@ -10048,10 +12109,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>922</v>
+        <v>989</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>923</v>
+        <v>990</v>
       </c>
       <c r="D40" s="24">
         <v>4</v>
@@ -10062,10 +12123,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>924</v>
+        <v>991</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>925</v>
+        <v>992</v>
       </c>
       <c r="D41" s="24">
         <v>11</v>
@@ -10076,10 +12137,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>926</v>
+        <v>993</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>927</v>
+        <v>994</v>
       </c>
       <c r="D42" s="24">
         <v>12</v>
@@ -10090,10 +12151,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>928</v>
+        <v>995</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>929</v>
+        <v>996</v>
       </c>
       <c r="D43" s="24">
         <v>12</v>
@@ -10104,10 +12165,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>930</v>
+        <v>997</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>931</v>
+        <v>998</v>
       </c>
       <c r="D44" s="24">
         <v>12</v>
@@ -10118,10 +12179,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>932</v>
+        <v>999</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="D45" s="24">
         <v>12</v>
@@ -10132,10 +12193,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>934</v>
+        <v>1001</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>935</v>
+        <v>1002</v>
       </c>
       <c r="D46" s="3">
         <v>12</v>
@@ -10146,10 +12207,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>936</v>
+        <v>1003</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>937</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="10">
         <v>12</v>
@@ -10160,10 +12221,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>938</v>
+        <v>1005</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>939</v>
+        <v>1006</v>
       </c>
       <c r="D48" s="15">
         <v>12</v>
@@ -10174,10 +12235,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>940</v>
+        <v>1007</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>941</v>
+        <v>1008</v>
       </c>
       <c r="D49" s="24">
         <v>10</v>
@@ -10188,10 +12249,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>942</v>
+        <v>1009</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>943</v>
+        <v>1010</v>
       </c>
       <c r="D50" s="24">
         <v>12</v>
@@ -10202,10 +12263,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>944</v>
+        <v>1011</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="D51" s="24">
         <v>12</v>
@@ -10216,10 +12277,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="161" t="s">
-        <v>946</v>
+        <v>1013</v>
       </c>
       <c r="C52" s="160" t="s">
-        <v>947</v>
+        <v>1014</v>
       </c>
       <c r="D52" s="162">
         <v>12</v>
@@ -10230,10 +12291,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="163" t="s">
-        <v>948</v>
+        <v>1015</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>949</v>
+        <v>1016</v>
       </c>
       <c r="D53" s="163">
         <v>12</v>
@@ -10244,10 +12305,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>950</v>
+        <v>1017</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>951</v>
+        <v>1018</v>
       </c>
       <c r="D54" s="24">
         <v>11</v>
@@ -10258,10 +12319,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>952</v>
+        <v>1019</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>953</v>
+        <v>1020</v>
       </c>
       <c r="D55" s="24">
         <v>12</v>
@@ -10272,10 +12333,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>954</v>
+        <v>1021</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>955</v>
+        <v>1022</v>
       </c>
       <c r="D56" s="24">
         <v>5</v>
@@ -10286,10 +12347,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>956</v>
+        <v>1023</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>957</v>
+        <v>1024</v>
       </c>
       <c r="D57" s="3">
         <v>6</v>
@@ -10300,10 +12361,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>958</v>
+        <v>1025</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>959</v>
+        <v>1026</v>
       </c>
       <c r="D58" s="3">
         <v>8</v>
@@ -10314,10 +12375,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>960</v>
+        <v>1027</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>961</v>
+        <v>1028</v>
       </c>
       <c r="D59" s="3">
         <v>8</v>
@@ -10328,10 +12389,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>962</v>
+        <v>1029</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>963</v>
+        <v>1030</v>
       </c>
       <c r="D60" s="3">
         <v>11</v>
@@ -10342,10 +12403,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>964</v>
+        <v>1031</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>965</v>
+        <v>1032</v>
       </c>
       <c r="D61" s="3">
         <v>12</v>
@@ -10356,10 +12417,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>966</v>
+        <v>1033</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>967</v>
+        <v>1034</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
@@ -10370,10 +12431,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>968</v>
+        <v>1035</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>969</v>
+        <v>1036</v>
       </c>
       <c r="D63" s="3">
         <v>12</v>
@@ -10384,10 +12445,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>970</v>
+        <v>1037</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>971</v>
+        <v>1038</v>
       </c>
       <c r="D64" s="3">
         <v>12</v>
@@ -10398,10 +12459,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>972</v>
+        <v>1039</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>973</v>
+        <v>1040</v>
       </c>
       <c r="D65" s="10">
         <v>12</v>
@@ -10412,10 +12473,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="161" t="s">
-        <v>974</v>
+        <v>1041</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="D66" s="162">
         <v>12</v>
@@ -10426,10 +12487,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>976</v>
+        <v>1043</v>
       </c>
       <c r="C67" s="171" t="s">
-        <v>977</v>
+        <v>1044</v>
       </c>
       <c r="D67" s="24">
         <v>12</v>
@@ -10440,10 +12501,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>978</v>
+        <v>1045</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>979</v>
+        <v>1046</v>
       </c>
       <c r="D68" s="15">
         <v>12</v>
@@ -10454,10 +12515,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>980</v>
+        <v>1047</v>
       </c>
       <c r="C69" s="160" t="s">
-        <v>981</v>
+        <v>1048</v>
       </c>
       <c r="D69" s="15">
         <v>2</v>
@@ -10468,10 +12529,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>982</v>
+        <v>1049</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>983</v>
+        <v>1050</v>
       </c>
       <c r="D70" s="24">
         <v>12</v>
@@ -10482,10 +12543,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>984</v>
+        <v>1051</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>985</v>
+        <v>1052</v>
       </c>
       <c r="D71" s="24">
         <v>12</v>
@@ -10496,10 +12557,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>986</v>
+        <v>1053</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>987</v>
+        <v>1054</v>
       </c>
       <c r="D72" s="3">
         <v>12</v>
@@ -10510,10 +12571,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>988</v>
+        <v>1055</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>989</v>
+        <v>1056</v>
       </c>
       <c r="D73" s="15">
         <v>12</v>
@@ -10524,10 +12585,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>990</v>
+        <v>1057</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>991</v>
+        <v>1058</v>
       </c>
       <c r="D74" s="15">
         <v>12</v>
@@ -10538,10 +12599,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>992</v>
+        <v>1059</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>993</v>
+        <v>1060</v>
       </c>
       <c r="D75" s="15">
         <v>12</v>
@@ -10552,24 +12613,24 @@
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>994</v>
+        <v>1061</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>995</v>
+        <v>1062</v>
       </c>
       <c r="D76" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="76.5">
+    <row r="77" spans="1:4" ht="72.599999999999994">
       <c r="A77" s="24">
         <v>76</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>996</v>
+        <v>1063</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>997</v>
+        <v>1064</v>
       </c>
       <c r="D77" s="24">
         <v>12</v>
@@ -10580,10 +12641,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>998</v>
+        <v>1065</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>999</v>
+        <v>1066</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -10594,24 +12655,24 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1001</v>
+        <v>1068</v>
       </c>
       <c r="D79" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="76.5">
+    <row r="80" spans="1:4" ht="72.599999999999994">
       <c r="A80" s="15">
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>1002</v>
+        <v>1069</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1003</v>
+        <v>1070</v>
       </c>
       <c r="D80" s="15">
         <v>12</v>
@@ -10622,10 +12683,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1004</v>
+        <v>1071</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1005</v>
+        <v>1072</v>
       </c>
       <c r="D81" s="24">
         <v>10</v>
@@ -10636,10 +12697,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>1006</v>
+        <v>1073</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>1007</v>
+        <v>1074</v>
       </c>
       <c r="D82" s="15">
         <v>5</v>
@@ -10650,10 +12711,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1008</v>
+        <v>1075</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1009</v>
+        <v>1076</v>
       </c>
       <c r="D83" s="24">
         <v>12</v>
@@ -10664,10 +12725,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1010</v>
+        <v>1077</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1011</v>
+        <v>1078</v>
       </c>
       <c r="D84" s="24">
         <v>12</v>
@@ -10678,10 +12739,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1012</v>
+        <v>1079</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1013</v>
+        <v>1080</v>
       </c>
       <c r="D85" s="3">
         <v>6</v>
@@ -10692,10 +12753,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1014</v>
+        <v>1081</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1015</v>
+        <v>1082</v>
       </c>
       <c r="D86" s="3">
         <v>9</v>
@@ -10706,10 +12767,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1016</v>
+        <v>1083</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1017</v>
+        <v>1084</v>
       </c>
       <c r="D87" s="3">
         <v>10</v>
@@ -10720,10 +12781,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1018</v>
+        <v>1085</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1019</v>
+        <v>1086</v>
       </c>
       <c r="D88" s="3">
         <v>4</v>
@@ -10734,10 +12795,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1020</v>
+        <v>1087</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>1021</v>
+        <v>1088</v>
       </c>
       <c r="D89" s="10">
         <v>7</v>
@@ -10748,10 +12809,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>1022</v>
+        <v>1089</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1023</v>
+        <v>1090</v>
       </c>
       <c r="D90" s="24">
         <v>9</v>
@@ -10762,10 +12823,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>1024</v>
+        <v>1091</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>1025</v>
+        <v>1092</v>
       </c>
       <c r="D91" s="24">
         <v>6</v>
@@ -10776,10 +12837,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>1026</v>
+        <v>1093</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>1027</v>
+        <v>1094</v>
       </c>
       <c r="D92" s="24">
         <v>10</v>
@@ -10790,10 +12851,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1028</v>
+        <v>1095</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1029</v>
+        <v>1096</v>
       </c>
       <c r="D93" s="3">
         <v>12</v>
@@ -10804,10 +12865,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1030</v>
+        <v>1097</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1031</v>
+        <v>1098</v>
       </c>
       <c r="D94" s="3">
         <v>6</v>
@@ -10818,10 +12879,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1032</v>
+        <v>1099</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="D95" s="3">
         <v>9</v>
@@ -10832,10 +12893,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1034</v>
+        <v>1101</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1035</v>
+        <v>1102</v>
       </c>
       <c r="D96" s="3">
         <v>10</v>
@@ -10846,10 +12907,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1036</v>
+        <v>1103</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1037</v>
+        <v>1104</v>
       </c>
       <c r="D97" s="3">
         <v>12</v>
@@ -10860,10 +12921,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1038</v>
+        <v>1105</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1039</v>
+        <v>1106</v>
       </c>
       <c r="D98" s="3">
         <v>11</v>
@@ -10874,10 +12935,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1040</v>
+        <v>1107</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1041</v>
+        <v>1108</v>
       </c>
       <c r="D99" s="3">
         <v>12</v>
@@ -10888,10 +12949,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1042</v>
+        <v>1109</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1043</v>
+        <v>1110</v>
       </c>
       <c r="D100" s="3">
         <v>6</v>
@@ -10902,10 +12963,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1044</v>
+        <v>1111</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1045</v>
+        <v>1112</v>
       </c>
       <c r="D101" s="3">
         <v>12</v>
@@ -10916,10 +12977,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1046</v>
+        <v>1113</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1047</v>
+        <v>1114</v>
       </c>
       <c r="D102" s="3">
         <v>12</v>
@@ -10930,10 +12991,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1048</v>
+        <v>1115</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1049</v>
+        <v>1116</v>
       </c>
       <c r="D103" s="3">
         <v>12</v>
@@ -10944,10 +13005,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1050</v>
+        <v>1117</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1051</v>
+        <v>1118</v>
       </c>
       <c r="D104" s="3">
         <v>12</v>
@@ -10958,10 +13019,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1052</v>
+        <v>1119</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1053</v>
+        <v>1120</v>
       </c>
       <c r="D105" s="3">
         <v>12</v>
@@ -10972,10 +13033,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>1054</v>
+        <v>1121</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1055</v>
+        <v>1122</v>
       </c>
       <c r="D106" s="10">
         <v>12</v>
@@ -10986,10 +13047,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1056</v>
+        <v>1123</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>1057</v>
+        <v>1124</v>
       </c>
       <c r="D107" s="24">
         <v>8</v>
@@ -11000,10 +13061,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>1058</v>
+        <v>1125</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>1059</v>
+        <v>1126</v>
       </c>
       <c r="D108" s="15">
         <v>12</v>
@@ -11014,10 +13075,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>1060</v>
+        <v>1127</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>1061</v>
+        <v>1128</v>
       </c>
       <c r="D109" s="15">
         <v>8</v>
@@ -11028,10 +13089,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1062</v>
+        <v>1129</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>1063</v>
+        <v>1130</v>
       </c>
       <c r="D110" s="24">
         <v>11</v>
@@ -11042,10 +13103,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1064</v>
+        <v>1131</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>1065</v>
+        <v>1132</v>
       </c>
       <c r="D111" s="24">
         <v>12</v>
@@ -11056,10 +13117,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>1066</v>
+        <v>1133</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>1067</v>
+        <v>1134</v>
       </c>
       <c r="D112" s="15">
         <v>10</v>
@@ -11070,10 +13131,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>1068</v>
+        <v>1135</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>1069</v>
+        <v>1136</v>
       </c>
       <c r="D113" s="24">
         <v>12</v>
@@ -11084,10 +13145,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1070</v>
+        <v>1137</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>1071</v>
+        <v>1138</v>
       </c>
       <c r="D114" s="3">
         <v>12</v>
@@ -11098,10 +13159,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1072</v>
+        <v>1139</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>1073</v>
+        <v>1140</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -11112,10 +13173,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1074</v>
+        <v>1141</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1075</v>
+        <v>1142</v>
       </c>
       <c r="D116" s="3">
         <v>12</v>
@@ -11126,10 +13187,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>1077</v>
+        <v>1144</v>
       </c>
       <c r="D117" s="3">
         <v>12</v>
@@ -11140,10 +13201,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1078</v>
+        <v>1145</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1079</v>
+        <v>1146</v>
       </c>
       <c r="D118" s="3">
         <v>12</v>
@@ -11154,10 +13215,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1080</v>
+        <v>1147</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1081</v>
+        <v>1148</v>
       </c>
       <c r="D119" s="3">
         <v>11</v>
@@ -11168,10 +13229,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1082</v>
+        <v>1149</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>1083</v>
+        <v>1150</v>
       </c>
       <c r="D120" s="3">
         <v>2</v>
@@ -11182,10 +13243,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1084</v>
+        <v>1151</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1085</v>
+        <v>1152</v>
       </c>
       <c r="D121" s="3">
         <v>12</v>
@@ -11196,10 +13257,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1086</v>
+        <v>1153</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1087</v>
+        <v>1154</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
@@ -11210,10 +13271,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1088</v>
+        <v>1155</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>1089</v>
+        <v>1156</v>
       </c>
       <c r="D123" s="3">
         <v>12</v>
@@ -11224,10 +13285,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1090</v>
+        <v>1157</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1091</v>
+        <v>1158</v>
       </c>
       <c r="D124" s="3">
         <v>9</v>
@@ -11238,10 +13299,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1092</v>
+        <v>1159</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>1093</v>
+        <v>1160</v>
       </c>
       <c r="D125" s="3">
         <v>12</v>
@@ -11252,10 +13313,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1094</v>
+        <v>1161</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>1095</v>
+        <v>1162</v>
       </c>
       <c r="D126" s="3">
         <v>12</v>
@@ -11266,10 +13327,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1096</v>
+        <v>1163</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>1097</v>
+        <v>1164</v>
       </c>
       <c r="D127" s="3">
         <v>12</v>
@@ -11280,10 +13341,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1098</v>
+        <v>1165</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>1099</v>
+        <v>1166</v>
       </c>
       <c r="D128" s="3">
         <v>12</v>
@@ -11294,10 +13355,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1100</v>
+        <v>1167</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>1101</v>
+        <v>1168</v>
       </c>
       <c r="D129" s="3">
         <v>12</v>
@@ -11308,10 +13369,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1102</v>
+        <v>1169</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1103</v>
+        <v>1170</v>
       </c>
       <c r="D130" s="3">
         <v>12</v>
@@ -11322,10 +13383,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1104</v>
+        <v>1171</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>1105</v>
+        <v>1172</v>
       </c>
       <c r="D131" s="3">
         <v>9</v>
@@ -11336,10 +13397,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1106</v>
+        <v>1173</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>1107</v>
+        <v>1174</v>
       </c>
       <c r="D132" s="3">
         <v>12</v>
@@ -11350,10 +13411,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1108</v>
+        <v>1175</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>1031</v>
+        <v>1098</v>
       </c>
       <c r="D133" s="3">
         <v>12</v>
@@ -11364,10 +13425,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1109</v>
+        <v>1176</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1110</v>
+        <v>1177</v>
       </c>
       <c r="D134" s="3">
         <v>12</v>
@@ -11378,10 +13439,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1111</v>
+        <v>1178</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>1112</v>
+        <v>1179</v>
       </c>
       <c r="D135" s="3">
         <v>12</v>
@@ -11392,110 +13453,352 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1113</v>
+        <v>1180</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1114</v>
+        <v>1181</v>
       </c>
       <c r="D136" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="72.599999999999994">
       <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="B137" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D137" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="72.599999999999994">
       <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="B138" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="72.599999999999994">
       <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="B139" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D139" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="57.95">
       <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="B140" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D140" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="101.45">
       <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="B141" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D141" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="87">
       <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="B142" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D142" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="87">
       <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="B143" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D143" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="43.5">
       <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="B144" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D144" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="87">
       <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="B145" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D145" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="72.599999999999994">
       <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="B146" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D146" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="76.5">
       <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="B147" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D147" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="101.45">
       <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D148" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="87">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D149" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="87">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D150" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="87">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D151" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="87">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D152" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="101.45">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D153" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="72.599999999999994">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D154" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="72.599999999999994">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D155" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="87">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D156" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="72.599999999999994">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D157" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="101.45">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D158" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11529,30 +13832,30 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="218" t="s">
-        <v>1115</v>
+      <c r="D1" s="220" t="s">
+        <v>1226</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="219" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I1" s="219"/>
+      <c r="H1" s="221" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I1" s="221"/>
     </row>
     <row r="2" spans="1:13" ht="29.1">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1117</v>
+        <v>1228</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D2" s="218"/>
+        <v>1229</v>
+      </c>
+      <c r="D2" s="220"/>
       <c r="E2" s="3" t="s">
-        <v>1119</v>
+        <v>1230</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -11561,22 +13864,22 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1120</v>
+        <v>1231</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1121</v>
+        <v>1232</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1122</v>
+        <v>1233</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1123</v>
+        <v>1234</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1124</v>
+        <v>1235</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1125</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30.95">
@@ -11584,13 +13887,13 @@
         <v>661732</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1126</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1127</v>
+        <v>1238</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1128</v>
+        <v>1239</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>120</v>
@@ -11599,10 +13902,10 @@
         <v>38</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>1129</v>
+        <v>1240</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>1130</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.95">
@@ -11610,25 +13913,25 @@
         <v>661733</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1126</v>
+        <v>1237</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1127</v>
+        <v>1238</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1128</v>
+        <v>1239</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1131</v>
+        <v>1242</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>1129</v>
+        <v>1240</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>1132</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
@@ -11642,10 +13945,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2858C-880D-4201-90F8-4D8A00AB081A}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -11653,7 +13956,7 @@
     <col min="1" max="1" width="9.140625" style="125"/>
     <col min="2" max="3" width="8.7109375" style="6"/>
     <col min="4" max="4" width="9.140625" style="126"/>
-    <col min="5" max="5" width="9.140625" style="125"/>
+    <col min="5" max="5" width="9.42578125" style="125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.7109375" style="6"/>
     <col min="10" max="10" width="9.140625" style="126"/>
     <col min="11" max="11" width="9.7109375" style="125" bestFit="1" customWidth="1"/>
@@ -11678,33 +13981,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="209" t="s">
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="209" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="211"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="213"/>
       <c r="X1" s="166"/>
       <c r="Y1" s="166"/>
     </row>
@@ -11872,7 +14175,7 @@
         <v>164</v>
       </c>
       <c r="W4" s="126" t="s">
-        <v>1133</v>
+        <v>1244</v>
       </c>
       <c r="X4" s="169">
         <v>15</v>
@@ -11889,7 +14192,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>1134</v>
+        <v>1245</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>209</v>
@@ -11898,25 +14201,25 @@
         <v>210</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1135</v>
+        <v>1246</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>212</v>
       </c>
       <c r="J5" s="126" t="s">
-        <v>1136</v>
+        <v>1247</v>
       </c>
       <c r="K5" s="125" t="s">
-        <v>1137</v>
+        <v>1248</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="125" t="s">
-        <v>1138</v>
+        <v>1249</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>241</v>
@@ -11931,13 +14234,13 @@
         <v>218</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>1140</v>
+        <v>1251</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>218</v>
       </c>
       <c r="W5" s="126" t="s">
-        <v>1141</v>
+        <v>1252</v>
       </c>
       <c r="X5" s="169">
         <v>18</v>
@@ -11954,10 +14257,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>1142</v>
+        <v>1253</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1143</v>
+        <v>1254</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>237</v>
@@ -11975,10 +14278,10 @@
         <v>214</v>
       </c>
       <c r="N6" s="125" t="s">
-        <v>1144</v>
+        <v>1255</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>241</v>
@@ -11987,7 +14290,7 @@
         <v>196</v>
       </c>
       <c r="S6" s="125" t="s">
-        <v>1145</v>
+        <v>1256</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>245</v>
@@ -11999,7 +14302,7 @@
         <v>245</v>
       </c>
       <c r="W6" s="126" t="s">
-        <v>1146</v>
+        <v>1257</v>
       </c>
       <c r="X6" s="169">
         <v>21</v>
@@ -12016,7 +14319,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>1147</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>236</v>
@@ -12025,13 +14328,13 @@
         <v>237</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1148</v>
+        <v>1259</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>239</v>
       </c>
       <c r="J7" s="126" t="s">
-        <v>1149</v>
+        <v>1260</v>
       </c>
       <c r="K7" s="125" t="s">
         <v>238</v>
@@ -12040,10 +14343,10 @@
         <v>241</v>
       </c>
       <c r="N7" s="125" t="s">
-        <v>1150</v>
+        <v>1261</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>241</v>
@@ -12058,7 +14361,7 @@
         <v>245</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>1151</v>
+        <v>1262</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>245</v>
@@ -12078,7 +14381,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>1152</v>
+        <v>1263</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>260</v>
@@ -12093,7 +14396,7 @@
         <v>261</v>
       </c>
       <c r="K8" s="125" t="s">
-        <v>1151</v>
+        <v>1262</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>241</v>
@@ -12102,7 +14405,7 @@
         <v>254</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>241</v>
@@ -12111,16 +14414,16 @@
         <v>196</v>
       </c>
       <c r="R8" s="126" t="s">
-        <v>1153</v>
+        <v>1264</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>1154</v>
+        <v>1265</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>264</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>1155</v>
+        <v>1266</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>264</v>
@@ -12130,7 +14433,7 @@
         <v>25</v>
       </c>
       <c r="Y8" s="169" t="s">
-        <v>1156</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="57.95">
@@ -12144,7 +14447,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>1157</v>
+        <v>1268</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>260</v>
@@ -12159,19 +14462,19 @@
         <v>261</v>
       </c>
       <c r="K9" s="125" t="s">
-        <v>1158</v>
+        <v>1269</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>241</v>
       </c>
       <c r="M9" s="126" t="s">
-        <v>1159</v>
+        <v>1270</v>
       </c>
       <c r="N9" s="125" t="s">
         <v>279</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>1139</v>
+        <v>1250</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>241</v>
@@ -12183,7 +14486,7 @@
         <v>28</v>
       </c>
       <c r="Y9" s="169" t="s">
-        <v>1160</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="217.5">
@@ -12197,7 +14500,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>1161</v>
+        <v>1272</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>260</v>
@@ -12206,28 +14509,28 @@
         <v>300</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1162</v>
+        <v>1273</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>261</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>1163</v>
+        <v>1274</v>
       </c>
       <c r="K10" s="125" t="s">
         <v>344</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>1164</v>
+        <v>1275</v>
       </c>
       <c r="N10" s="125" t="s">
-        <v>1165</v>
+        <v>1276</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>318</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>1164</v>
+        <v>1275</v>
       </c>
       <c r="Q10" s="165" t="s">
         <v>196</v>
@@ -12248,7 +14551,7 @@
         <v>36</v>
       </c>
       <c r="Y10" s="169" t="s">
-        <v>1166</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="116.1">
@@ -12265,7 +14568,7 @@
         <v>374</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1167</v>
+        <v>1278</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>300</v>
@@ -12277,13 +14580,13 @@
         <v>302</v>
       </c>
       <c r="J11" s="126" t="s">
-        <v>1168</v>
+        <v>1279</v>
       </c>
       <c r="K11" s="125" t="s">
         <v>377</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1164</v>
+        <v>1275</v>
       </c>
       <c r="N11" s="125" t="s">
         <v>378</v>
@@ -12292,31 +14595,31 @@
         <v>318</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>1164</v>
+        <v>1275</v>
       </c>
       <c r="Q11" s="165" t="s">
         <v>196</v>
       </c>
       <c r="S11" s="125" t="s">
-        <v>1169</v>
+        <v>1280</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>363</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>1170</v>
+        <v>1281</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>363</v>
       </c>
       <c r="W11" s="126" t="s">
-        <v>1171</v>
+        <v>1282</v>
       </c>
       <c r="X11" s="169">
         <v>42</v>
       </c>
       <c r="Y11" s="169" t="s">
-        <v>1172</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="116.1">
@@ -12330,7 +14633,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="125" t="s">
-        <v>1173</v>
+        <v>1284</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>385</v>
@@ -12339,13 +14642,13 @@
         <v>386</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1174</v>
+        <v>1285</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>388</v>
       </c>
       <c r="J12" s="126" t="s">
-        <v>1175</v>
+        <v>1286</v>
       </c>
       <c r="K12" s="125" t="s">
         <v>378</v>
@@ -12354,10 +14657,10 @@
         <v>394</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>1176</v>
+        <v>1287</v>
       </c>
       <c r="N12" s="125" t="s">
-        <v>1177</v>
+        <v>1288</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>318</v>
@@ -12369,13 +14672,13 @@
         <v>196</v>
       </c>
       <c r="S12" s="125" t="s">
-        <v>1178</v>
+        <v>1289</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>363</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>1179</v>
+        <v>1290</v>
       </c>
       <c r="V12" s="6" t="s">
         <v>363</v>
@@ -12384,7 +14687,7 @@
         <v>43</v>
       </c>
       <c r="Y12" s="169" t="s">
-        <v>1180</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="116.1">
@@ -12398,7 +14701,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>1181</v>
+        <v>1292</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>385</v>
@@ -12413,19 +14716,19 @@
         <v>388</v>
       </c>
       <c r="J13" s="126" t="s">
-        <v>1182</v>
+        <v>1293</v>
       </c>
       <c r="K13" s="125" t="s">
-        <v>1183</v>
+        <v>1294</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>394</v>
       </c>
       <c r="M13" s="126" t="s">
-        <v>1171</v>
+        <v>1282</v>
       </c>
       <c r="N13" s="125" t="s">
-        <v>1184</v>
+        <v>1295</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>318</v>
@@ -12437,13 +14740,13 @@
         <v>196</v>
       </c>
       <c r="S13" s="125" t="s">
-        <v>1185</v>
+        <v>1296</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>363</v>
       </c>
       <c r="U13" s="188" t="s">
-        <v>1186</v>
+        <v>1297</v>
       </c>
       <c r="V13" s="6" t="s">
         <v>363</v>
@@ -12452,7 +14755,7 @@
         <v>44</v>
       </c>
       <c r="Y13" s="169" t="s">
-        <v>1187</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="174">
@@ -12466,7 +14769,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="125" t="s">
-        <v>1188</v>
+        <v>1299</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>385</v>
@@ -12475,19 +14778,19 @@
         <v>386</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1178</v>
+        <v>1289</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>388</v>
       </c>
       <c r="K14" s="125" t="s">
-        <v>1179</v>
+        <v>1290</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N14" s="125" t="s">
-        <v>1189</v>
+        <v>1300</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>393</v>
@@ -12499,25 +14802,25 @@
         <v>196</v>
       </c>
       <c r="S14" s="125" t="s">
-        <v>1190</v>
+        <v>1301</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>363</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>1191</v>
+        <v>1302</v>
       </c>
       <c r="V14" s="6" t="s">
         <v>363</v>
       </c>
       <c r="W14" s="126" t="s">
-        <v>1192</v>
+        <v>1303</v>
       </c>
       <c r="X14" s="169">
         <v>45</v>
       </c>
       <c r="Y14" s="169" t="s">
-        <v>1193</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="87">
@@ -12531,7 +14834,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="125" t="s">
-        <v>1194</v>
+        <v>1305</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>402</v>
@@ -12540,19 +14843,19 @@
         <v>386</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1195</v>
+        <v>1306</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>403</v>
       </c>
       <c r="K15" s="125" t="s">
-        <v>1196</v>
+        <v>1307</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N15" s="125" t="s">
-        <v>1197</v>
+        <v>1308</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>393</v>
@@ -12564,25 +14867,25 @@
         <v>196</v>
       </c>
       <c r="S15" s="125" t="s">
-        <v>1198</v>
+        <v>1309</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>408</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>1199</v>
+        <v>1310</v>
       </c>
       <c r="V15" s="6" t="s">
         <v>408</v>
       </c>
       <c r="W15" s="126" t="s">
-        <v>1200</v>
+        <v>1311</v>
       </c>
       <c r="X15" s="169">
         <v>48</v>
       </c>
       <c r="Y15" s="169" t="s">
-        <v>1201</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="57.95">
@@ -12596,7 +14899,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="125" t="s">
-        <v>1202</v>
+        <v>1313</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>402</v>
@@ -12617,7 +14920,7 @@
         <v>394</v>
       </c>
       <c r="N16" s="125" t="s">
-        <v>1203</v>
+        <v>1314</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>393</v>
@@ -12629,25 +14932,25 @@
         <v>196</v>
       </c>
       <c r="S16" s="125" t="s">
-        <v>1204</v>
+        <v>1315</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>423</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>1205</v>
+        <v>1316</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>423</v>
       </c>
       <c r="W16" s="126" t="s">
-        <v>1206</v>
+        <v>1317</v>
       </c>
       <c r="X16" s="169">
         <v>52</v>
       </c>
       <c r="Y16" s="169" t="s">
-        <v>1207</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="57.95">
@@ -12661,7 +14964,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="125" t="s">
-        <v>1208</v>
+        <v>1319</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>402</v>
@@ -12670,19 +14973,19 @@
         <v>447</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1209</v>
+        <v>1320</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>388</v>
       </c>
       <c r="K17" s="125" t="s">
-        <v>1210</v>
+        <v>1321</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N17" s="125" t="s">
-        <v>1211</v>
+        <v>1322</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>393</v>
@@ -12694,25 +14997,25 @@
         <v>196</v>
       </c>
       <c r="S17" s="125" t="s">
-        <v>1212</v>
+        <v>1323</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>1214</v>
+        <v>1325</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="W17" s="126" t="s">
-        <v>1215</v>
+        <v>1326</v>
       </c>
       <c r="X17" s="169">
         <v>55</v>
       </c>
       <c r="Y17" s="169" t="s">
-        <v>1216</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="72.599999999999994">
@@ -12726,7 +15029,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="125" t="s">
-        <v>1217</v>
+        <v>1328</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>402</v>
@@ -12735,25 +15038,25 @@
         <v>447</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>1218</v>
+        <v>1329</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>388</v>
       </c>
       <c r="J18" s="126" t="s">
-        <v>1219</v>
+        <v>1330</v>
       </c>
       <c r="K18" s="125" t="s">
-        <v>1220</v>
+        <v>1331</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>394</v>
       </c>
       <c r="M18" s="126" t="s">
-        <v>1221</v>
+        <v>1332</v>
       </c>
       <c r="N18" s="125" t="s">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>393</v>
@@ -12765,19 +15068,19 @@
         <v>196</v>
       </c>
       <c r="S18" s="125" t="s">
-        <v>1214</v>
+        <v>1325</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>1223</v>
+        <v>1334</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="W18" s="126" t="s">
-        <v>1224</v>
+        <v>1335</v>
       </c>
       <c r="X18" s="169">
         <v>56</v>
@@ -12815,7 +15118,7 @@
         <v>394</v>
       </c>
       <c r="N19" s="125" t="s">
-        <v>1225</v>
+        <v>1336</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>393</v>
@@ -12830,16 +15133,16 @@
         <v>461</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>463</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>1213</v>
+        <v>1324</v>
       </c>
       <c r="W19" s="126" t="s">
-        <v>1226</v>
+        <v>1337</v>
       </c>
       <c r="X19" s="169">
         <v>61</v>
@@ -12856,7 +15159,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>1227</v>
+        <v>1338</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>494</v>
@@ -12871,16 +15174,16 @@
         <v>388</v>
       </c>
       <c r="J20" s="126" t="s">
-        <v>1228</v>
+        <v>1339</v>
       </c>
       <c r="K20" s="125" t="s">
-        <v>1229</v>
+        <v>1340</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N20" s="125" t="s">
-        <v>1230</v>
+        <v>1341</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>393</v>
@@ -12933,22 +15236,22 @@
         <v>488</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>1231</v>
+        <v>1342</v>
       </c>
       <c r="K21" s="125" t="s">
-        <v>1232</v>
+        <v>1343</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="N21" s="125" t="s">
-        <v>1234</v>
+        <v>1345</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>500</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q21" s="165" t="s">
         <v>196</v>
@@ -12980,7 +15283,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>1235</v>
+        <v>1346</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>494</v>
@@ -12989,34 +15292,34 @@
         <v>237</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>1232</v>
+        <v>1343</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>488</v>
       </c>
       <c r="J22" s="126" t="s">
-        <v>1236</v>
+        <v>1347</v>
       </c>
       <c r="K22" s="125" t="s">
-        <v>1237</v>
+        <v>1348</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="N22" s="125" t="s">
-        <v>1238</v>
+        <v>1349</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>1239</v>
+        <v>1350</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q22" s="165" t="s">
         <v>196</v>
       </c>
       <c r="S22" s="125" t="s">
-        <v>1240</v>
+        <v>1351</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>502</v>
@@ -13028,13 +15331,13 @@
         <v>502</v>
       </c>
       <c r="W22" s="126" t="s">
-        <v>1241</v>
+        <v>1352</v>
       </c>
       <c r="X22" s="169">
         <v>67</v>
       </c>
       <c r="Y22" s="169" t="s">
-        <v>1242</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="57.95">
@@ -13048,19 +15351,19 @@
         <v>38</v>
       </c>
       <c r="K23" s="125" t="s">
-        <v>1243</v>
+        <v>1354</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="N23" s="172" t="s">
-        <v>1244</v>
+        <v>1355</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>1239</v>
+        <v>1350</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q23" s="165" t="s">
         <v>196</v>
@@ -13081,7 +15384,7 @@
         <v>68</v>
       </c>
       <c r="Y23" s="169" t="s">
-        <v>1245</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="57.95">
@@ -13095,7 +15398,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="125" t="s">
-        <v>1246</v>
+        <v>1357</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>494</v>
@@ -13104,52 +15407,52 @@
         <v>237</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>1247</v>
+        <v>1358</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>488</v>
       </c>
       <c r="J24" s="126" t="s">
-        <v>1248</v>
+        <v>1359</v>
       </c>
       <c r="K24" s="125" t="s">
-        <v>1249</v>
+        <v>1360</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="N24" s="125" t="s">
-        <v>1250</v>
+        <v>1361</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>1239</v>
+        <v>1350</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q24" s="165" t="s">
         <v>196</v>
       </c>
       <c r="S24" s="125" t="s">
-        <v>1251</v>
+        <v>1362</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>502</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>1252</v>
+        <v>1363</v>
       </c>
       <c r="V24" s="6" t="s">
         <v>502</v>
       </c>
       <c r="W24" s="126" t="s">
-        <v>1253</v>
+        <v>1364</v>
       </c>
       <c r="X24" s="169">
         <v>70</v>
       </c>
       <c r="Y24" s="169" t="s">
-        <v>1254</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="57.95">
@@ -13163,7 +15466,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="125" t="s">
-        <v>1255</v>
+        <v>1366</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>494</v>
@@ -13178,34 +15481,34 @@
         <v>488</v>
       </c>
       <c r="J25" s="126" t="s">
-        <v>1256</v>
+        <v>1367</v>
       </c>
       <c r="K25" s="125" t="s">
         <v>530</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="N25" s="125" t="s">
-        <v>1257</v>
+        <v>1368</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q25" s="165" t="s">
         <v>196</v>
       </c>
       <c r="S25" s="125" t="s">
-        <v>1258</v>
+        <v>1369</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>538</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>1252</v>
+        <v>1363</v>
       </c>
       <c r="V25" s="6" t="s">
         <v>538</v>
@@ -13225,7 +15528,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="125" t="s">
-        <v>1257</v>
+        <v>1368</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>528</v>
@@ -13234,13 +15537,13 @@
         <v>529</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1258</v>
+        <v>1369</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>531</v>
       </c>
       <c r="J26" s="126" t="s">
-        <v>1259</v>
+        <v>1370</v>
       </c>
       <c r="K26" s="125" t="s">
         <v>537</v>
@@ -13255,7 +15558,7 @@
         <v>536</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q26" s="165" t="s">
         <v>196</v>
@@ -13267,7 +15570,7 @@
         <v>538</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>1260</v>
+        <v>1371</v>
       </c>
       <c r="V26" s="6" t="s">
         <v>538</v>
@@ -13287,7 +15590,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="125" t="s">
-        <v>1261</v>
+        <v>1372</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>528</v>
@@ -13296,40 +15599,40 @@
         <v>529</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1262</v>
+        <v>1373</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>531</v>
       </c>
       <c r="J27" s="126" t="s">
-        <v>1263</v>
+        <v>1374</v>
       </c>
       <c r="K27" s="125" t="s">
-        <v>1264</v>
+        <v>1375</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>534</v>
       </c>
       <c r="N27" s="125" t="s">
-        <v>1265</v>
+        <v>1376</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q27" s="165" t="s">
         <v>196</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>1266</v>
+        <v>1377</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>538</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>1267</v>
+        <v>1378</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>538</v>
@@ -13349,7 +15652,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="125" t="s">
-        <v>1268</v>
+        <v>1379</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>528</v>
@@ -13364,34 +15667,34 @@
         <v>531</v>
       </c>
       <c r="J28" s="126" t="s">
-        <v>1269</v>
+        <v>1380</v>
       </c>
       <c r="K28" s="125" t="s">
-        <v>1266</v>
+        <v>1377</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>534</v>
       </c>
       <c r="N28" s="125" t="s">
-        <v>1270</v>
+        <v>1381</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q28" s="165" t="s">
         <v>546</v>
       </c>
       <c r="S28" s="125" t="s">
-        <v>1271</v>
+        <v>1382</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>538</v>
       </c>
       <c r="U28" s="188" t="s">
-        <v>1272</v>
+        <v>1383</v>
       </c>
       <c r="V28" s="6" t="s">
         <v>538</v>
@@ -13400,7 +15703,7 @@
         <v>75</v>
       </c>
       <c r="Y28" s="169" t="s">
-        <v>1273</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="57.95">
@@ -13414,7 +15717,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="125" t="s">
-        <v>1274</v>
+        <v>1385</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>528</v>
@@ -13423,43 +15726,43 @@
         <v>541</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1275</v>
+        <v>1386</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>531</v>
       </c>
       <c r="K29" s="125" t="s">
-        <v>1276</v>
+        <v>1387</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>534</v>
       </c>
       <c r="N29" s="125" t="s">
-        <v>1277</v>
+        <v>1388</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q29" s="165" t="s">
         <v>546</v>
       </c>
       <c r="S29" s="125" t="s">
-        <v>1278</v>
+        <v>1389</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>538</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>1279</v>
+        <v>1390</v>
       </c>
       <c r="V29" s="6" t="s">
         <v>538</v>
       </c>
       <c r="W29" s="126" t="s">
-        <v>1280</v>
+        <v>1391</v>
       </c>
       <c r="X29" s="169">
         <v>79</v>
@@ -13476,7 +15779,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>1281</v>
+        <v>1392</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>564</v>
@@ -13485,40 +15788,40 @@
         <v>541</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>1282</v>
+        <v>1393</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>573</v>
       </c>
       <c r="J30" s="126" t="s">
-        <v>1283</v>
+        <v>1394</v>
       </c>
       <c r="K30" s="125" t="s">
-        <v>1284</v>
+        <v>1395</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>534</v>
       </c>
       <c r="N30" s="125" t="s">
-        <v>1285</v>
+        <v>1396</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q30" s="165" t="s">
         <v>546</v>
       </c>
       <c r="S30" s="125" t="s">
-        <v>1286</v>
+        <v>1397</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>594</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>594</v>
@@ -13538,7 +15841,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="125" t="s">
-        <v>1288</v>
+        <v>1399</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>564</v>
@@ -13553,22 +15856,22 @@
         <v>573</v>
       </c>
       <c r="J31" s="126" t="s">
-        <v>1289</v>
+        <v>1400</v>
       </c>
       <c r="K31" s="125" t="s">
-        <v>1286</v>
+        <v>1397</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>534</v>
       </c>
       <c r="N31" s="125" t="s">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>536</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>1233</v>
+        <v>1344</v>
       </c>
       <c r="Q31" s="165" t="s">
         <v>546</v>
@@ -13580,19 +15883,19 @@
         <v>594</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>1290</v>
+        <v>1401</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>594</v>
       </c>
       <c r="W31" s="126" t="s">
-        <v>1291</v>
+        <v>1402</v>
       </c>
       <c r="X31" s="169">
         <v>86</v>
       </c>
       <c r="Y31" s="169" t="s">
-        <v>1292</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="57.95">
@@ -13606,7 +15909,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>1293</v>
+        <v>1404</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>564</v>
@@ -13621,10 +15924,10 @@
         <v>573</v>
       </c>
       <c r="J32" s="126" t="s">
-        <v>1294</v>
+        <v>1405</v>
       </c>
       <c r="K32" s="125" t="s">
-        <v>1295</v>
+        <v>1406</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>534</v>
@@ -13642,19 +15945,19 @@
         <v>546</v>
       </c>
       <c r="S32" s="125" t="s">
-        <v>1296</v>
+        <v>1407</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>1297</v>
+        <v>1408</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>1298</v>
+        <v>1409</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>1297</v>
+        <v>1408</v>
       </c>
       <c r="W32" s="126" t="s">
-        <v>1299</v>
+        <v>1410</v>
       </c>
       <c r="X32" s="169">
         <v>88</v>
@@ -13671,7 +15974,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>1300</v>
+        <v>1411</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>611</v>
@@ -13680,22 +15983,22 @@
         <v>612</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>1301</v>
+        <v>1412</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>1302</v>
+        <v>1413</v>
       </c>
       <c r="J33" s="126" t="s">
-        <v>1303</v>
+        <v>1414</v>
       </c>
       <c r="K33" s="172" t="s">
-        <v>1304</v>
+        <v>1415</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>631</v>
       </c>
       <c r="N33" s="125" t="s">
-        <v>1305</v>
+        <v>1416</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>536</v>
@@ -13707,7 +16010,7 @@
         <v>546</v>
       </c>
       <c r="S33" s="125" t="s">
-        <v>1306</v>
+        <v>1417</v>
       </c>
       <c r="T33" s="6" t="s">
         <v>634</v>
@@ -13733,7 +16036,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="125" t="s">
-        <v>1307</v>
+        <v>1418</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>611</v>
@@ -13742,22 +16045,22 @@
         <v>612</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>1308</v>
+        <v>1419</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>642</v>
       </c>
       <c r="J34" s="126" t="s">
-        <v>1309</v>
+        <v>1420</v>
       </c>
       <c r="K34" s="125" t="s">
-        <v>1305</v>
+        <v>1416</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>631</v>
       </c>
       <c r="N34" s="125" t="s">
-        <v>1310</v>
+        <v>1421</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>536</v>
@@ -13784,7 +16087,7 @@
         <v>93</v>
       </c>
       <c r="Y34" s="169" t="s">
-        <v>1311</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="57.95">
@@ -13798,22 +16101,22 @@
         <v>38</v>
       </c>
       <c r="E35" s="125" t="s">
-        <v>1312</v>
+        <v>1423</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1313</v>
+        <v>1424</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>612</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>1306</v>
+        <v>1417</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>642</v>
       </c>
       <c r="J35" s="126" t="s">
-        <v>1314</v>
+        <v>1425</v>
       </c>
       <c r="K35" s="125" t="s">
         <v>635</v>
@@ -13822,7 +16125,7 @@
         <v>631</v>
       </c>
       <c r="N35" s="125" t="s">
-        <v>1315</v>
+        <v>1426</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>536</v>
@@ -13834,13 +16137,13 @@
         <v>546</v>
       </c>
       <c r="S35" s="125" t="s">
-        <v>1316</v>
+        <v>1427</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>634</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>1317</v>
+        <v>1428</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>634</v>
@@ -13861,7 +16164,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="125" t="s">
-        <v>1318</v>
+        <v>1429</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>640</v>
@@ -13876,17 +16179,17 @@
         <v>642</v>
       </c>
       <c r="J36" s="126" t="s">
-        <v>1319</v>
+        <v>1430</v>
       </c>
       <c r="K36" s="125" t="s">
-        <v>1320</v>
+        <v>1431</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>631</v>
       </c>
       <c r="M36" s="126"/>
       <c r="N36" s="125" t="s">
-        <v>1321</v>
+        <v>1432</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>536</v>
@@ -13928,25 +16231,25 @@
         <v>38</v>
       </c>
       <c r="E37" s="125" t="s">
-        <v>1322</v>
+        <v>1433</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1323</v>
+        <v>1434</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>679</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>1324</v>
+        <v>1435</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>661</v>
       </c>
       <c r="J37" s="126" t="s">
-        <v>1325</v>
+        <v>1436</v>
       </c>
       <c r="K37" s="125" t="s">
-        <v>1326</v>
+        <v>1437</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>631</v>
@@ -13966,19 +16269,19 @@
       </c>
       <c r="R37" s="126"/>
       <c r="S37" s="125" t="s">
-        <v>1327</v>
+        <v>1438</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>1328</v>
+        <v>1439</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>1329</v>
+        <v>1440</v>
       </c>
       <c r="V37" s="6" t="s">
         <v>710</v>
       </c>
       <c r="W37" s="126" t="s">
-        <v>1330</v>
+        <v>1441</v>
       </c>
       <c r="X37" s="169">
         <v>103</v>
@@ -13997,7 +16300,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="125" t="s">
-        <v>1331</v>
+        <v>1442</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>693</v>
@@ -14006,23 +16309,23 @@
         <v>679</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>1327</v>
+        <v>1438</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>695</v>
       </c>
       <c r="J38" s="126" t="s">
-        <v>1332</v>
+        <v>1443</v>
       </c>
       <c r="K38" s="125" t="s">
-        <v>1333</v>
+        <v>1444</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>631</v>
       </c>
       <c r="M38" s="126"/>
       <c r="N38" s="125" t="s">
-        <v>1334</v>
+        <v>1445</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>681</v>
@@ -14035,19 +16338,19 @@
       </c>
       <c r="R38" s="126"/>
       <c r="S38" s="125" t="s">
-        <v>1335</v>
+        <v>1446</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>710</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>1336</v>
+        <v>1447</v>
       </c>
       <c r="V38" s="6" t="s">
         <v>710</v>
       </c>
       <c r="W38" s="126" t="s">
-        <v>1337</v>
+        <v>1448</v>
       </c>
       <c r="X38" s="169">
         <v>104</v>
@@ -14075,23 +16378,23 @@
         <v>679</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>1338</v>
+        <v>1449</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>706</v>
       </c>
       <c r="J39" s="126" t="s">
-        <v>1339</v>
+        <v>1450</v>
       </c>
       <c r="K39" s="125" t="s">
-        <v>1340</v>
+        <v>1451</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>631</v>
       </c>
       <c r="M39" s="126"/>
       <c r="N39" s="125" t="s">
-        <v>1341</v>
+        <v>1452</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>681</v>
@@ -14110,13 +16413,13 @@
         <v>668</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>1342</v>
+        <v>1453</v>
       </c>
       <c r="V39" s="6" t="s">
         <v>668</v>
       </c>
       <c r="W39" s="126" t="s">
-        <v>1343</v>
+        <v>1454</v>
       </c>
       <c r="X39" s="169">
         <v>107</v>
@@ -14135,7 +16438,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="125" t="s">
-        <v>1344</v>
+        <v>1455</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>715</v>
@@ -14158,7 +16461,7 @@
       </c>
       <c r="M40" s="126"/>
       <c r="N40" s="6" t="s">
-        <v>1345</v>
+        <v>1456</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>681</v>
@@ -14171,19 +16474,19 @@
       </c>
       <c r="R40" s="126"/>
       <c r="S40" s="6" t="s">
-        <v>1346</v>
+        <v>1457</v>
       </c>
       <c r="T40" s="6" t="s">
         <v>668</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>1347</v>
+        <v>1458</v>
       </c>
       <c r="V40" s="6" t="s">
         <v>668</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>1348</v>
+        <v>1459</v>
       </c>
       <c r="X40" s="169">
         <v>110</v>
@@ -14202,7 +16505,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="125" t="s">
-        <v>1349</v>
+        <v>1460</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>660</v>
@@ -14217,17 +16520,17 @@
         <v>706</v>
       </c>
       <c r="J41" s="126" t="s">
-        <v>1350</v>
+        <v>1461</v>
       </c>
       <c r="K41" s="125" t="s">
-        <v>1351</v>
+        <v>1462</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>699</v>
       </c>
       <c r="M41" s="126"/>
       <c r="N41" s="125" t="s">
-        <v>1352</v>
+        <v>1463</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>681</v>
@@ -14240,7 +16543,7 @@
       </c>
       <c r="R41" s="126"/>
       <c r="S41" s="172" t="s">
-        <v>1353</v>
+        <v>1464</v>
       </c>
       <c r="T41" s="6" t="s">
         <v>668</v>
@@ -14252,7 +16555,7 @@
         <v>668</v>
       </c>
       <c r="W41" s="126" t="s">
-        <v>1354</v>
+        <v>1465</v>
       </c>
       <c r="X41" s="169">
         <v>113</v>
@@ -14271,7 +16574,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="125" t="s">
-        <v>1355</v>
+        <v>1466</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>768</v>
@@ -14287,14 +16590,14 @@
       </c>
       <c r="J42" s="126"/>
       <c r="K42" s="125" t="s">
-        <v>1356</v>
+        <v>1467</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>699</v>
       </c>
       <c r="M42" s="126"/>
       <c r="N42" s="125" t="s">
-        <v>1357</v>
+        <v>1468</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>681</v>
@@ -14307,7 +16610,7 @@
       </c>
       <c r="R42" s="126"/>
       <c r="S42" s="125" t="s">
-        <v>1358</v>
+        <v>1469</v>
       </c>
       <c r="T42" s="6" t="s">
         <v>668</v>
@@ -14336,7 +16639,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="125" t="s">
-        <v>1359</v>
+        <v>1470</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>768</v>
@@ -14345,13 +16648,13 @@
         <v>777</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>1360</v>
+        <v>1471</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>770</v>
       </c>
       <c r="J43" s="126" t="s">
-        <v>1361</v>
+        <v>1472</v>
       </c>
       <c r="K43" s="125" t="s">
         <v>794</v>
@@ -14380,7 +16683,7 @@
         <v>774</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>1362</v>
+        <v>1473</v>
       </c>
       <c r="V43" s="6" t="s">
         <v>774</v>
@@ -14402,7 +16705,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="125" t="s">
-        <v>1363</v>
+        <v>1474</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>768</v>
@@ -14411,13 +16714,13 @@
         <v>801</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>1364</v>
+        <v>1475</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>803</v>
       </c>
       <c r="J44" s="126" t="s">
-        <v>1365</v>
+        <v>1476</v>
       </c>
       <c r="K44" s="125" t="s">
         <v>818</v>
@@ -14426,7 +16729,7 @@
         <v>699</v>
       </c>
       <c r="N44" s="125" t="s">
-        <v>1366</v>
+        <v>1477</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>681</v>
@@ -14464,7 +16767,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="125" t="s">
-        <v>1367</v>
+        <v>1478</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>768</v>
@@ -14473,22 +16776,22 @@
         <v>801</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>1368</v>
+        <v>1479</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>803</v>
       </c>
       <c r="J45" s="126" t="s">
-        <v>1369</v>
+        <v>1480</v>
       </c>
       <c r="K45" s="125" t="s">
-        <v>1370</v>
+        <v>1481</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>699</v>
       </c>
       <c r="N45" s="125" t="s">
-        <v>1371</v>
+        <v>1482</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>681</v>
@@ -14500,16 +16803,16 @@
         <v>546</v>
       </c>
       <c r="R45" s="126" t="s">
-        <v>1372</v>
+        <v>1483</v>
       </c>
       <c r="S45" s="125" t="s">
-        <v>1373</v>
+        <v>1484</v>
       </c>
       <c r="T45" s="6" t="s">
         <v>806</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>1374</v>
+        <v>1485</v>
       </c>
       <c r="V45" s="6" t="s">
         <v>806</v>
@@ -14529,7 +16832,7 @@
         <v>38</v>
       </c>
       <c r="E46" s="125" t="s">
-        <v>1375</v>
+        <v>1486</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>768</v>
@@ -14538,22 +16841,22 @@
         <v>801</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1376</v>
+        <v>1487</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>803</v>
       </c>
       <c r="J46" s="126" t="s">
-        <v>1377</v>
+        <v>1488</v>
       </c>
       <c r="K46" s="125" t="s">
-        <v>1376</v>
+        <v>1487</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>699</v>
       </c>
       <c r="N46" s="125" t="s">
-        <v>1374</v>
+        <v>1485</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>681</v>
@@ -14565,19 +16868,19 @@
         <v>546</v>
       </c>
       <c r="S46" s="125" t="s">
-        <v>1378</v>
+        <v>1489</v>
       </c>
       <c r="T46" s="6" t="s">
         <v>806</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>1379</v>
+        <v>1490</v>
       </c>
       <c r="V46" s="6" t="s">
         <v>806</v>
       </c>
       <c r="W46" s="126" t="s">
-        <v>1380</v>
+        <v>1491</v>
       </c>
       <c r="X46" s="169">
         <v>128</v>
@@ -14594,7 +16897,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="125" t="s">
-        <v>1381</v>
+        <v>1492</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>768</v>
@@ -14603,13 +16906,13 @@
         <v>801</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>1382</v>
+        <v>1493</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>803</v>
       </c>
       <c r="J47" s="126" t="s">
-        <v>1383</v>
+        <v>1494</v>
       </c>
       <c r="K47" s="125" t="s">
         <v>826</v>
@@ -14618,7 +16921,7 @@
         <v>699</v>
       </c>
       <c r="N47" s="125" t="s">
-        <v>1379</v>
+        <v>1490</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>681</v>
@@ -14630,13 +16933,13 @@
         <v>546</v>
       </c>
       <c r="S47" s="125" t="s">
-        <v>1384</v>
+        <v>1495</v>
       </c>
       <c r="T47" s="6" t="s">
         <v>806</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>1385</v>
+        <v>1496</v>
       </c>
       <c r="V47" s="6" t="s">
         <v>806</v>
@@ -14656,7 +16959,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="125" t="s">
-        <v>1386</v>
+        <v>1497</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>768</v>
@@ -14665,7 +16968,7 @@
         <v>801</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>1387</v>
+        <v>1498</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>803</v>
@@ -14677,7 +16980,7 @@
         <v>699</v>
       </c>
       <c r="N48" s="125" t="s">
-        <v>1388</v>
+        <v>1499</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>681</v>
@@ -14689,13 +16992,13 @@
         <v>546</v>
       </c>
       <c r="S48" s="125" t="s">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T48" s="6" t="s">
         <v>806</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>1390</v>
+        <v>1501</v>
       </c>
       <c r="V48" s="6" t="s">
         <v>806</v>
@@ -14715,7 +17018,7 @@
         <v>38</v>
       </c>
       <c r="E49" s="125" t="s">
-        <v>1391</v>
+        <v>1502</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>768</v>
@@ -14724,19 +17027,19 @@
         <v>801</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>803</v>
       </c>
       <c r="K49" s="125" t="s">
-        <v>1392</v>
+        <v>1503</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>699</v>
       </c>
       <c r="N49" s="125" t="s">
-        <v>1393</v>
+        <v>1504</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>681</v>
@@ -14748,13 +17051,13 @@
         <v>546</v>
       </c>
       <c r="S49" s="125" t="s">
-        <v>1394</v>
+        <v>1505</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>806</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>1395</v>
+        <v>1506</v>
       </c>
       <c r="V49" s="6" t="s">
         <v>806</v>
@@ -14774,7 +17077,7 @@
         <v>38</v>
       </c>
       <c r="E50" s="125" t="s">
-        <v>1396</v>
+        <v>1507</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>833</v>
@@ -14783,49 +17086,46 @@
         <v>834</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>1397</v>
+        <v>1508</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="J50" s="126" t="s">
-        <v>1398</v>
-      </c>
       <c r="K50" s="125" t="s">
-        <v>848</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1399</v>
+        <v>859</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>1509</v>
       </c>
       <c r="N50" s="125" t="s">
-        <v>849</v>
-      </c>
-      <c r="O50" t="s">
+        <v>861</v>
+      </c>
+      <c r="O50" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="P50" t="s">
-        <v>1399</v>
+      <c r="P50" s="6" t="s">
+        <v>1509</v>
       </c>
       <c r="Q50" s="165" t="s">
         <v>546</v>
       </c>
       <c r="S50" s="125" t="s">
-        <v>1400</v>
+        <v>863</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>1401</v>
+        <v>1510</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>806</v>
+        <v>860</v>
       </c>
       <c r="X50" s="169">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="29.1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="57.95">
       <c r="B51" s="6" t="s">
         <v>139</v>
       </c>
@@ -14835,11 +17135,59 @@
       <c r="D51" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E51" s="125" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J51" s="126" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K51" s="125" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N51" s="125" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q51" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S51" s="125" t="s">
+        <v>1516</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="X51" s="169">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" ht="29.1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="57.95">
       <c r="B52" s="6" t="s">
         <v>139</v>
       </c>
@@ -14849,11 +17197,59 @@
       <c r="D52" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E52" s="125" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H52" s="188" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J52" s="126" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K52" s="125" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N52" s="125" t="s">
+        <v>1521</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q52" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S52" s="125" t="s">
+        <v>1522</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="X52" s="169">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" ht="29.1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="57.95">
       <c r="B53" s="6" t="s">
         <v>139</v>
       </c>
@@ -14863,11 +17259,59 @@
       <c r="D53" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E53" s="125" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J53" s="126" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K53" s="125" t="s">
+        <v>877</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N53" s="125" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q53" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S53" s="125" t="s">
+        <v>878</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="X53" s="169">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" ht="29.1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="57.95">
       <c r="B54" s="6" t="s">
         <v>139</v>
       </c>
@@ -14877,11 +17321,62 @@
       <c r="D54" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E54" s="125" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J54" s="126" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K54" s="125" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M54" s="126" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N54" s="125" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q54" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S54" s="125" t="s">
+        <v>1532</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>860</v>
+      </c>
       <c r="X54" s="169">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" ht="29.1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="57.95">
       <c r="B55" s="6" t="s">
         <v>139</v>
       </c>
@@ -14891,11 +17386,59 @@
       <c r="D55" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E55" s="172" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J55" s="126" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K55" s="125" t="s">
+        <v>895</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N55" s="125" t="s">
+        <v>896</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q55" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S55" s="125" t="s">
+        <v>1536</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>882</v>
+      </c>
       <c r="X55" s="169">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" ht="29.1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="57.95">
       <c r="B56" s="6" t="s">
         <v>139</v>
       </c>
@@ -14905,8 +17448,205 @@
       <c r="D56" s="126" t="s">
         <v>38</v>
       </c>
+      <c r="E56" s="125" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="J56" s="126" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K56" s="125" t="s">
+        <v>904</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N56" s="125" t="s">
+        <v>901</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q56" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S56" s="125" t="s">
+        <v>906</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>882</v>
+      </c>
       <c r="X56" s="169">
-        <v>147</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="57.95">
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="125" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K57" s="125" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N57" s="125" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q57" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S57" s="125" t="s">
+        <v>1546</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="X57" s="169">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="57.95">
+      <c r="B58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="125" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J58" s="126" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K58" s="125" t="s">
+        <v>912</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N58" s="125" t="s">
+        <v>1547</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q58" s="165" t="s">
+        <v>546</v>
+      </c>
+      <c r="S58" s="125" t="s">
+        <v>1551</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="X58" s="169">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="29.1">
+      <c r="B59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="X59" s="169">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="29.1">
+      <c r="B60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="X60" s="169">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -14961,33 +17701,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="127"/>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="206" t="s">
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="207"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="206" t="s">
+      <c r="L1" s="209"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="206" t="s">
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="208"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="210"/>
       <c r="X1" s="121"/>
       <c r="Y1" s="122"/>
     </row>
@@ -17645,7 +20385,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B56" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -17682,33 +20422,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="206" t="s">
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="207"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="206" t="s">
+      <c r="L1" s="209"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="206" t="s">
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="208"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="210"/>
       <c r="X1" s="121"/>
       <c r="Y1" s="122"/>
     </row>
@@ -21615,33 +24355,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="209" t="s">
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="209" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="211"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="213"/>
       <c r="X1" s="121"/>
       <c r="Y1" s="122"/>
     </row>
@@ -24007,33 +26747,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="209" t="s">
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="209" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="211"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="213"/>
       <c r="X1" s="121"/>
       <c r="Y1" s="122"/>
     </row>
@@ -25305,7 +28045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -25338,33 +28078,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="209" t="s">
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="209" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="211"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="213"/>
       <c r="X1" s="166"/>
       <c r="Y1" s="166"/>
     </row>
@@ -28100,33 +30840,33 @@
       <c r="B1" s="174"/>
       <c r="C1" s="174"/>
       <c r="D1" s="179"/>
-      <c r="E1" s="212" t="s">
+      <c r="E1" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="212" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="213"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="212" t="s">
+      <c r="L1" s="215"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="212" t="s">
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="214"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="216"/>
       <c r="X1" s="182"/>
       <c r="Y1" s="166"/>
     </row>
@@ -30115,33 +32855,33 @@
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="122"/>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="209" t="s">
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="209" t="s">
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="209" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="211"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="213"/>
       <c r="X1" s="166"/>
       <c r="Y1" s="166"/>
     </row>
@@ -32285,33 +35025,33 @@
       <c r="B1" s="174"/>
       <c r="C1" s="174"/>
       <c r="D1" s="179"/>
-      <c r="E1" s="215" t="s">
+      <c r="E1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="215" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="216"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="215" t="s">
+      <c r="L1" s="218"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="215" t="s">
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="217"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="219"/>
       <c r="X1" s="196"/>
       <c r="Y1" s="191"/>
     </row>
@@ -34737,6 +37477,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DA38A99A95E53E45BC77383D06E8D8B8" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98d2841fbb8db0096988a5f9c3b5b4a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a192c208-c66a-4877-8c3a-71c84d8b7446" xmlns:ns3="4c65472c-b9f9-4571-94ff-540c94a616f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f932ff0d344a76a8052b259bce753435" ns2:_="" ns3:_="">
     <xsd:import namespace="a192c208-c66a-4877-8c3a-71c84d8b7446"/>
@@ -34985,23 +37734,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC457C14-FD43-492D-99CE-65BB98327F62}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2535C58-DF1C-4CCB-A971-F52E0C04C274}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C88080F-69D8-4689-BEE5-A1C072168C04}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C88080F-69D8-4689-BEE5-A1C072168C04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2535C58-DF1C-4CCB-A971-F52E0C04C274}"/>
 </file>